--- a/data/app_flyktninger_exlyear.xlsx
+++ b/data/app_flyktninger_exlyear.xlsx
@@ -447,16 +447,16 @@
         <v>7421</v>
       </c>
       <c r="H2">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="I2">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="J2">
-        <v>0.03880878587791402</v>
+        <v>0.04554642231505188</v>
       </c>
       <c r="K2">
-        <v>0.03624848403180164</v>
+        <v>0.0420428513677402</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>21708</v>
       </c>
       <c r="H3">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="I3">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="J3">
-        <v>0.02234199373502856</v>
+        <v>0.02542841348811498</v>
       </c>
       <c r="K3">
-        <v>0.019531969780726</v>
+        <v>0.02243412566795651</v>
       </c>
     </row>
     <row r="4">
@@ -537,16 +537,16 @@
         <v>2526</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I4">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J4">
-        <v>0.03800475059382423</v>
+        <v>0.0435471100554236</v>
       </c>
       <c r="K4">
-        <v>0.0320665083135392</v>
+        <v>0.03760886777513856</v>
       </c>
     </row>
     <row r="5">
@@ -582,16 +582,16 @@
         <v>29986</v>
       </c>
       <c r="H5">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="I5">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="J5">
-        <v>0.01484025878743414</v>
+        <v>0.01640765690655639</v>
       </c>
       <c r="K5">
-        <v>0.0140065363836457</v>
+        <v>0.01537384112585873</v>
       </c>
     </row>
     <row r="6">
@@ -627,16 +627,16 @@
         <v>4553</v>
       </c>
       <c r="H6">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="I6">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J6">
-        <v>0.03755765429387217</v>
+        <v>0.04151109158796398</v>
       </c>
       <c r="K6">
-        <v>0.0349220294311443</v>
+        <v>0.0397540083461454</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>1347</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J7">
-        <v>0.0378619153674833</v>
+        <v>0.04305864884929473</v>
       </c>
       <c r="K7">
-        <v>0.0378619153674833</v>
+        <v>0.04305864884929473</v>
       </c>
     </row>
     <row r="8">
@@ -717,16 +717,16 @@
         <v>46355</v>
       </c>
       <c r="H8">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="I8">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="J8">
-        <v>0.01158451084025456</v>
+        <v>0.01240427138388523</v>
       </c>
       <c r="K8">
-        <v>0.009880271815338151</v>
+        <v>0.01050587854600367</v>
       </c>
     </row>
     <row r="9">
@@ -762,16 +762,16 @@
         <v>98815</v>
       </c>
       <c r="H9">
-        <v>784</v>
+        <v>851</v>
       </c>
       <c r="I9">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="J9">
-        <v>0.007934018114658705</v>
+        <v>0.008612052825987957</v>
       </c>
       <c r="K9">
-        <v>0.006031472954510955</v>
+        <v>0.006456509639224814</v>
       </c>
     </row>
     <row r="10">
@@ -807,16 +807,16 @@
         <v>2986</v>
       </c>
       <c r="H10">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I10">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="J10">
-        <v>0.03516409912926993</v>
+        <v>0.04286671131949096</v>
       </c>
       <c r="K10">
-        <v>0.03516409912926993</v>
+        <v>0.04286671131949096</v>
       </c>
     </row>
     <row r="11">
@@ -852,16 +852,16 @@
         <v>30145</v>
       </c>
       <c r="H11">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I11">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="J11">
-        <v>0.008923536241499419</v>
+        <v>0.009421131199203849</v>
       </c>
       <c r="K11">
-        <v>0.007895173328910267</v>
+        <v>0.008193730303532924</v>
       </c>
     </row>
     <row r="12">
@@ -897,16 +897,16 @@
         <v>3678</v>
       </c>
       <c r="H12">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="I12">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="J12">
-        <v>0.05356171832517673</v>
+        <v>0.05954323001631321</v>
       </c>
       <c r="K12">
-        <v>0.04758020663404024</v>
+        <v>0.05138662316476346</v>
       </c>
     </row>
     <row r="13">
@@ -942,16 +942,16 @@
         <v>3408</v>
       </c>
       <c r="H13">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I13">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="J13">
-        <v>0.03227699530516432</v>
+        <v>0.03902582159624413</v>
       </c>
       <c r="K13">
-        <v>0.03227699530516432</v>
+        <v>0.03902582159624413</v>
       </c>
     </row>
     <row r="14">
@@ -987,16 +987,16 @@
         <v>1800</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I14">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J14">
-        <v>0.01166666666666667</v>
+        <v>0.02166666666666667</v>
       </c>
       <c r="K14">
-        <v>0.01166666666666667</v>
+        <v>0.02166666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -1032,16 +1032,16 @@
         <v>18058</v>
       </c>
       <c r="H15">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="I15">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J15">
-        <v>0.0141211651345664</v>
+        <v>0.01556097020711042</v>
       </c>
       <c r="K15">
-        <v>0.01295824565289622</v>
+        <v>0.01428729648909071</v>
       </c>
     </row>
     <row r="16">
@@ -1077,16 +1077,16 @@
         <v>5300</v>
       </c>
       <c r="H16">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="I16">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="J16">
-        <v>0.01679245283018868</v>
+        <v>0.02113207547169811</v>
       </c>
       <c r="K16">
-        <v>0.01679245283018868</v>
+        <v>0.02113207547169811</v>
       </c>
     </row>
     <row r="17">
@@ -1122,16 +1122,16 @@
         <v>2881</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I17">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J17">
-        <v>0.01909059354390837</v>
+        <v>0.02360291565428671</v>
       </c>
       <c r="K17">
-        <v>0.01909059354390837</v>
+        <v>0.02360291565428671</v>
       </c>
     </row>
     <row r="18">
@@ -1167,16 +1167,16 @@
         <v>5955</v>
       </c>
       <c r="H18">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="I18">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="J18">
-        <v>0.0329135180520571</v>
+        <v>0.03912678421494543</v>
       </c>
       <c r="K18">
-        <v>0.03207388748950462</v>
+        <v>0.03828715365239295</v>
       </c>
     </row>
     <row r="19">
@@ -1212,16 +1212,16 @@
         <v>5571</v>
       </c>
       <c r="H19">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="I19">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="J19">
-        <v>0.03087416980793395</v>
+        <v>0.03733620534912942</v>
       </c>
       <c r="K19">
-        <v>0.0281816549991025</v>
+        <v>0.03464369054029797</v>
       </c>
     </row>
     <row r="20">
@@ -1257,16 +1257,16 @@
         <v>14269</v>
       </c>
       <c r="H20">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="I20">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J20">
-        <v>0.01359590721143738</v>
+        <v>0.0158385310813652</v>
       </c>
       <c r="K20">
-        <v>0.01261475926834396</v>
+        <v>0.01436680916672507</v>
       </c>
     </row>
     <row r="21">
@@ -1302,16 +1302,16 @@
         <v>3986</v>
       </c>
       <c r="H21">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I21">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J21">
-        <v>0.0286001003512293</v>
+        <v>0.03211239337681886</v>
       </c>
       <c r="K21">
-        <v>0.02558956347215254</v>
+        <v>0.0291018564977421</v>
       </c>
     </row>
     <row r="22">
@@ -1347,16 +1347,16 @@
         <v>1062</v>
       </c>
       <c r="H22">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I22">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J22">
-        <v>0.06308851224105462</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="K22">
-        <v>0.06308851224105462</v>
+        <v>0.07627118644067797</v>
       </c>
     </row>
     <row r="23">
@@ -1392,16 +1392,16 @@
         <v>291940</v>
       </c>
       <c r="H23">
-        <v>2232</v>
+        <v>2490</v>
       </c>
       <c r="I23">
-        <v>1933</v>
+        <v>2145</v>
       </c>
       <c r="J23">
-        <v>0.007645406590395287</v>
+        <v>0.008529149825306569</v>
       </c>
       <c r="K23">
-        <v>0.006621223539083373</v>
+        <v>0.0073474001507159</v>
       </c>
     </row>
     <row r="24">
@@ -1437,16 +1437,16 @@
         <v>892</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I24">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J24">
-        <v>0.05269058295964126</v>
+        <v>0.06165919282511211</v>
       </c>
       <c r="K24">
-        <v>0.05269058295964126</v>
+        <v>0.06165919282511211</v>
       </c>
     </row>
     <row r="25">
@@ -1482,16 +1482,16 @@
         <v>1399</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J25">
-        <v>0.01715511079342387</v>
+        <v>0.02644746247319514</v>
       </c>
       <c r="K25">
-        <v>0.01715511079342387</v>
+        <v>0.02644746247319514</v>
       </c>
     </row>
     <row r="26">
@@ -1527,16 +1527,16 @@
         <v>5480</v>
       </c>
       <c r="H26">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I26">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J26">
-        <v>0.02591240875912409</v>
+        <v>0.02755474452554744</v>
       </c>
       <c r="K26">
-        <v>0.02317518248175182</v>
+        <v>0.02481751824817518</v>
       </c>
     </row>
     <row r="27">
@@ -1572,16 +1572,16 @@
         <v>2892</v>
       </c>
       <c r="H27">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I27">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J27">
-        <v>0.04149377593360996</v>
+        <v>0.04529737206085754</v>
       </c>
       <c r="K27">
-        <v>0.04149377593360996</v>
+        <v>0.04529737206085754</v>
       </c>
     </row>
     <row r="28">
@@ -1617,16 +1617,16 @@
         <v>26080</v>
       </c>
       <c r="H28">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="I28">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="J28">
-        <v>0.01265337423312883</v>
+        <v>0.01468558282208589</v>
       </c>
       <c r="K28">
-        <v>0.01154141104294478</v>
+        <v>0.01357361963190184</v>
       </c>
     </row>
     <row r="29">
@@ -1662,16 +1662,16 @@
         <v>53712</v>
       </c>
       <c r="H29">
-        <v>872</v>
+        <v>1028</v>
       </c>
       <c r="I29">
-        <v>781</v>
+        <v>914</v>
       </c>
       <c r="J29">
-        <v>0.01623473339291034</v>
+        <v>0.01913911230265118</v>
       </c>
       <c r="K29">
-        <v>0.01454051236222818</v>
+        <v>0.01701668156091748</v>
       </c>
     </row>
     <row r="30">
@@ -1707,16 +1707,16 @@
         <v>883</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I30">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J30">
-        <v>0.03737259343148358</v>
+        <v>0.05436013590033975</v>
       </c>
       <c r="K30">
-        <v>0.03737259343148358</v>
+        <v>0.05436013590033975</v>
       </c>
     </row>
     <row r="31">
@@ -1752,16 +1752,16 @@
         <v>3392</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I31">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="J31">
-        <v>0.01149764150943396</v>
+        <v>0.01798349056603774</v>
       </c>
       <c r="K31">
-        <v>0.01149764150943396</v>
+        <v>0.01798349056603774</v>
       </c>
     </row>
     <row r="32">
@@ -1797,16 +1797,16 @@
         <v>7826</v>
       </c>
       <c r="H32">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="I32">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J32">
-        <v>0.02453360592895477</v>
+        <v>0.02785586506516739</v>
       </c>
       <c r="K32">
-        <v>0.02389470994122157</v>
+        <v>0.0272169690774342</v>
       </c>
     </row>
     <row r="33">
@@ -1842,16 +1842,16 @@
         <v>1180</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I33">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J33">
-        <v>0.0364406779661017</v>
+        <v>0.04152542372881356</v>
       </c>
       <c r="K33">
-        <v>0.0364406779661017</v>
+        <v>0.04152542372881356</v>
       </c>
     </row>
     <row r="34">
@@ -1887,16 +1887,16 @@
         <v>1011</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I34">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J34">
-        <v>0.03956478733926805</v>
+        <v>0.06231454005934718</v>
       </c>
       <c r="K34">
-        <v>0.03956478733926805</v>
+        <v>0.06231454005934718</v>
       </c>
     </row>
     <row r="35">
@@ -1932,16 +1932,16 @@
         <v>2113</v>
       </c>
       <c r="H35">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I35">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="J35">
-        <v>0.02082347373402745</v>
+        <v>0.03170847136772362</v>
       </c>
       <c r="K35">
-        <v>0.02082347373402745</v>
+        <v>0.03170847136772362</v>
       </c>
     </row>
     <row r="36">
@@ -1977,16 +1977,16 @@
         <v>130921</v>
       </c>
       <c r="H36">
-        <v>785</v>
+        <v>930</v>
       </c>
       <c r="I36">
-        <v>598</v>
+        <v>709</v>
       </c>
       <c r="J36">
-        <v>0.005995982309942637</v>
+        <v>0.007103520443626309</v>
       </c>
       <c r="K36">
-        <v>0.00456764002719197</v>
+        <v>0.005415479564011885</v>
       </c>
     </row>
     <row r="37">
@@ -2022,16 +2022,16 @@
         <v>2634</v>
       </c>
       <c r="H37">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I37">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J37">
-        <v>0.02771450265755505</v>
+        <v>0.03416856492027335</v>
       </c>
       <c r="K37">
-        <v>0.02771450265755505</v>
+        <v>0.03416856492027335</v>
       </c>
     </row>
     <row r="38">
@@ -2067,16 +2067,16 @@
         <v>12268</v>
       </c>
       <c r="H38">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="I38">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J38">
-        <v>0.01793283338767525</v>
+        <v>0.02005216824258233</v>
       </c>
       <c r="K38">
-        <v>0.01524290837952397</v>
+        <v>0.01736224323443104</v>
       </c>
     </row>
     <row r="39">
@@ -2112,16 +2112,16 @@
         <v>2807</v>
       </c>
       <c r="H39">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I39">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J39">
-        <v>0.01674385464909156</v>
+        <v>0.03063769148557179</v>
       </c>
       <c r="K39">
-        <v>0.01674385464909156</v>
+        <v>0.03063769148557179</v>
       </c>
     </row>
     <row r="40">
@@ -2157,16 +2157,16 @@
         <v>4281</v>
       </c>
       <c r="H40">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I40">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="J40">
-        <v>0.01121233356692362</v>
+        <v>0.0161177295024527</v>
       </c>
       <c r="K40">
-        <v>0.01121233356692362</v>
+        <v>0.0161177295024527</v>
       </c>
     </row>
     <row r="41">
@@ -2202,16 +2202,16 @@
         <v>2503</v>
       </c>
       <c r="H41">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="I41">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="J41">
-        <v>0.03875349580503396</v>
+        <v>0.05393527766679984</v>
       </c>
       <c r="K41">
-        <v>0.03875349580503396</v>
+        <v>0.05393527766679984</v>
       </c>
     </row>
     <row r="42">
@@ -2247,16 +2247,16 @@
         <v>104487</v>
       </c>
       <c r="H42">
-        <v>796</v>
+        <v>842</v>
       </c>
       <c r="I42">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="J42">
-        <v>0.007618172595633906</v>
+        <v>0.008058418750657976</v>
       </c>
       <c r="K42">
-        <v>0.006010317072937303</v>
+        <v>0.006383569247849014</v>
       </c>
     </row>
     <row r="43">
@@ -2292,16 +2292,16 @@
         <v>4086</v>
       </c>
       <c r="H43">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I43">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="J43">
-        <v>0.02643171806167401</v>
+        <v>0.03279490944689183</v>
       </c>
       <c r="K43">
-        <v>0.02104747919725893</v>
+        <v>0.02741067058247675</v>
       </c>
     </row>
     <row r="44">
@@ -2337,16 +2337,16 @@
         <v>1073</v>
       </c>
       <c r="H44">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I44">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J44">
-        <v>0.03261882572227399</v>
+        <v>0.04287045666356011</v>
       </c>
       <c r="K44">
-        <v>0.03261882572227399</v>
+        <v>0.04287045666356011</v>
       </c>
     </row>
     <row r="45">
@@ -2382,16 +2382,16 @@
         <v>1427</v>
       </c>
       <c r="H45">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="I45">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J45">
-        <v>0.05886475122634898</v>
+        <v>0.07428170988086896</v>
       </c>
       <c r="K45">
-        <v>0.05886475122634898</v>
+        <v>0.07428170988086896</v>
       </c>
     </row>
     <row r="46">
@@ -2427,16 +2427,16 @@
         <v>968</v>
       </c>
       <c r="H46">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I46">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J46">
-        <v>0.02582644628099174</v>
+        <v>0.04028925619834711</v>
       </c>
       <c r="K46">
-        <v>0.02582644628099174</v>
+        <v>0.04028925619834711</v>
       </c>
     </row>
     <row r="47">
@@ -2472,16 +2472,16 @@
         <v>6040</v>
       </c>
       <c r="H47">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I47">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J47">
-        <v>0.01390728476821192</v>
+        <v>0.01572847682119205</v>
       </c>
       <c r="K47">
-        <v>0.01390728476821192</v>
+        <v>0.01572847682119205</v>
       </c>
     </row>
     <row r="48">
@@ -2517,16 +2517,16 @@
         <v>27916</v>
       </c>
       <c r="H48">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="I48">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="J48">
-        <v>0.01110474279982806</v>
+        <v>0.01382719587333429</v>
       </c>
       <c r="K48">
-        <v>0.01049577303338587</v>
+        <v>0.01271672159335148</v>
       </c>
     </row>
     <row r="49">
@@ -2562,16 +2562,16 @@
         <v>15221</v>
       </c>
       <c r="H49">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="I49">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="J49">
-        <v>0.02588529005978582</v>
+        <v>0.02838184087773471</v>
       </c>
       <c r="K49">
-        <v>0.02345443794757243</v>
+        <v>0.02595098876552132</v>
       </c>
     </row>
     <row r="50">
@@ -2607,16 +2607,16 @@
         <v>21761</v>
       </c>
       <c r="H50">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="I50">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="J50">
-        <v>0.0129130095124305</v>
+        <v>0.01415376131611599</v>
       </c>
       <c r="K50">
-        <v>0.01047745967556638</v>
+        <v>0.01158035016773126</v>
       </c>
     </row>
     <row r="51">
@@ -2652,16 +2652,16 @@
         <v>11482</v>
       </c>
       <c r="H51">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="I51">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="J51">
-        <v>0.008012541369099461</v>
+        <v>0.01097369796202752</v>
       </c>
       <c r="K51">
-        <v>0.006444870231666957</v>
+        <v>0.008535098414910295</v>
       </c>
     </row>
     <row r="52">
@@ -2697,16 +2697,16 @@
         <v>1361</v>
       </c>
       <c r="H52">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I52">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J52">
-        <v>0.02351212343864805</v>
+        <v>0.03747244673034533</v>
       </c>
       <c r="K52">
-        <v>0.02351212343864805</v>
+        <v>0.03747244673034533</v>
       </c>
     </row>
     <row r="53">
@@ -2742,16 +2742,16 @@
         <v>4072</v>
       </c>
       <c r="H53">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I53">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J53">
-        <v>0.01129666011787819</v>
+        <v>0.01227897838899803</v>
       </c>
       <c r="K53">
-        <v>0.01129666011787819</v>
+        <v>0.01227897838899803</v>
       </c>
     </row>
     <row r="54">
@@ -2787,16 +2787,16 @@
         <v>1366</v>
       </c>
       <c r="H54">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I54">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J54">
-        <v>0.01317715959004392</v>
+        <v>0.03074670571010249</v>
       </c>
       <c r="K54">
-        <v>0.01317715959004392</v>
+        <v>0.03074670571010249</v>
       </c>
     </row>
     <row r="55">
@@ -2832,16 +2832,16 @@
         <v>1330</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I55">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J55">
-        <v>0.01879699248120301</v>
+        <v>0.03533834586466165</v>
       </c>
       <c r="K55">
-        <v>0.01879699248120301</v>
+        <v>0.03533834586466165</v>
       </c>
     </row>
     <row r="56">
@@ -2877,16 +2877,16 @@
         <v>3967</v>
       </c>
       <c r="H56">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I56">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J56">
-        <v>0.02041845223090497</v>
+        <v>0.02470380640282329</v>
       </c>
       <c r="K56">
-        <v>0.02041845223090497</v>
+        <v>0.02470380640282329</v>
       </c>
     </row>
     <row r="57">
@@ -2922,16 +2922,16 @@
         <v>9876</v>
       </c>
       <c r="H57">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I57">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J57">
-        <v>0.01640340218712029</v>
+        <v>0.01842851356824625</v>
       </c>
       <c r="K57">
-        <v>0.01640340218712029</v>
+        <v>0.01842851356824625</v>
       </c>
     </row>
     <row r="58">
@@ -2967,16 +2967,16 @@
         <v>9827</v>
       </c>
       <c r="H58">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="I58">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="J58">
-        <v>0.008751399206268443</v>
+        <v>0.01099012923577898</v>
       </c>
       <c r="K58">
-        <v>0.008751399206268443</v>
+        <v>0.01099012923577898</v>
       </c>
     </row>
     <row r="59">
@@ -3012,16 +3012,16 @@
         <v>519</v>
       </c>
       <c r="H59">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I59">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J59">
-        <v>0.07129094412331406</v>
+        <v>0.09441233140655106</v>
       </c>
       <c r="K59">
-        <v>0.07129094412331406</v>
+        <v>0.09441233140655106</v>
       </c>
     </row>
     <row r="60">
@@ -3057,16 +3057,16 @@
         <v>3203</v>
       </c>
       <c r="H60">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I60">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J60">
-        <v>0.01061504839213238</v>
+        <v>0.01592257258819856</v>
       </c>
       <c r="K60">
-        <v>0.01061504839213238</v>
+        <v>0.01592257258819856</v>
       </c>
     </row>
     <row r="61">
@@ -3102,16 +3102,16 @@
         <v>2869</v>
       </c>
       <c r="H61">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I61">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J61">
-        <v>0.0146392471244336</v>
+        <v>0.02091321017776229</v>
       </c>
       <c r="K61">
-        <v>0.01115371209480655</v>
+        <v>0.01742767514813524</v>
       </c>
     </row>
     <row r="62">
@@ -3147,16 +3147,16 @@
         <v>2492</v>
       </c>
       <c r="H62">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I62">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J62">
-        <v>0.02768860353130016</v>
+        <v>0.03250401284109149</v>
       </c>
       <c r="K62">
-        <v>0.02768860353130016</v>
+        <v>0.03250401284109149</v>
       </c>
     </row>
     <row r="63">
@@ -3192,16 +3192,16 @@
         <v>1229</v>
       </c>
       <c r="H63">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I63">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="J63">
-        <v>0.05288852725793328</v>
+        <v>0.08299430431244914</v>
       </c>
       <c r="K63">
-        <v>0.05288852725793328</v>
+        <v>0.08299430431244914</v>
       </c>
     </row>
     <row r="64">
@@ -3237,16 +3237,16 @@
         <v>1116</v>
       </c>
       <c r="H64">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I64">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J64">
-        <v>0.02598566308243727</v>
+        <v>0.03942652329749104</v>
       </c>
       <c r="K64">
-        <v>0.02598566308243727</v>
+        <v>0.03942652329749104</v>
       </c>
     </row>
     <row r="65">
@@ -3282,16 +3282,16 @@
         <v>9279</v>
       </c>
       <c r="H65">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="I65">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="J65">
-        <v>0.02705032869921328</v>
+        <v>0.03060674641663972</v>
       </c>
       <c r="K65">
-        <v>0.0258648561267378</v>
+        <v>0.02942127384416424</v>
       </c>
     </row>
     <row r="66">
@@ -3327,16 +3327,16 @@
         <v>2781</v>
       </c>
       <c r="H66">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I66">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J66">
-        <v>0.04207119741100324</v>
+        <v>0.04566702624955052</v>
       </c>
       <c r="K66">
-        <v>0.04207119741100324</v>
+        <v>0.04566702624955052</v>
       </c>
     </row>
     <row r="67">
@@ -3372,16 +3372,16 @@
         <v>1115</v>
       </c>
       <c r="H67">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I67">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J67">
-        <v>0.0242152466367713</v>
+        <v>0.03856502242152467</v>
       </c>
       <c r="K67">
-        <v>0.0242152466367713</v>
+        <v>0.03856502242152467</v>
       </c>
     </row>
     <row r="68">
@@ -3417,16 +3417,16 @@
         <v>1532</v>
       </c>
       <c r="H68">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I68">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J68">
-        <v>0.03133159268929504</v>
+        <v>0.04308093994778068</v>
       </c>
       <c r="K68">
-        <v>0.03133159268929504</v>
+        <v>0.04308093994778068</v>
       </c>
     </row>
     <row r="69">
@@ -3462,16 +3462,16 @@
         <v>85230</v>
       </c>
       <c r="H69">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="I69">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="J69">
-        <v>0.006312331338730494</v>
+        <v>0.006969376979936642</v>
       </c>
       <c r="K69">
-        <v>0.005045171887832923</v>
+        <v>0.005455825413586766</v>
       </c>
     </row>
     <row r="70">
@@ -3507,16 +3507,16 @@
         <v>16244</v>
       </c>
       <c r="H70">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="I70">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="J70">
-        <v>0.01631371583353854</v>
+        <v>0.01939177542477222</v>
       </c>
       <c r="K70">
-        <v>0.0133587786259542</v>
+        <v>0.0159443486825905</v>
       </c>
     </row>
     <row r="71">
@@ -3552,16 +3552,16 @@
         <v>6236</v>
       </c>
       <c r="H71">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I71">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="J71">
-        <v>0.007216164207825529</v>
+        <v>0.01090442591404747</v>
       </c>
       <c r="K71">
-        <v>0.007216164207825529</v>
+        <v>0.01090442591404747</v>
       </c>
     </row>
     <row r="72">
@@ -3597,16 +3597,16 @@
         <v>2645</v>
       </c>
       <c r="H72">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I72">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J72">
-        <v>0.01928166351606805</v>
+        <v>0.02457466918714556</v>
       </c>
       <c r="K72">
-        <v>0.01928166351606805</v>
+        <v>0.02457466918714556</v>
       </c>
     </row>
     <row r="73">
@@ -3642,16 +3642,16 @@
         <v>5453</v>
       </c>
       <c r="H73">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="I73">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J73">
-        <v>0.01448743810746378</v>
+        <v>0.01888868512745278</v>
       </c>
       <c r="K73">
-        <v>0.01118650284247203</v>
+        <v>0.01558774986246103</v>
       </c>
     </row>
     <row r="74">
@@ -3687,16 +3687,16 @@
         <v>1256</v>
       </c>
       <c r="H74">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I74">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J74">
-        <v>0.04617834394904458</v>
+        <v>0.06050955414012739</v>
       </c>
       <c r="K74">
-        <v>0.04617834394904458</v>
+        <v>0.06050955414012739</v>
       </c>
     </row>
     <row r="75">
@@ -3732,16 +3732,16 @@
         <v>27501</v>
       </c>
       <c r="H75">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="I75">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="J75">
-        <v>0.009272390094905639</v>
+        <v>0.01083596960110541</v>
       </c>
       <c r="K75">
-        <v>0.007963346787389549</v>
+        <v>0.009163303152612632</v>
       </c>
     </row>
     <row r="76">
@@ -3777,16 +3777,16 @@
         <v>1070</v>
       </c>
       <c r="H76">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I76">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J76">
-        <v>0.01682242990654206</v>
+        <v>0.02149532710280374</v>
       </c>
       <c r="K76">
-        <v>0.01682242990654206</v>
+        <v>0.02149532710280374</v>
       </c>
     </row>
     <row r="77">
@@ -3822,16 +3822,16 @@
         <v>6177</v>
       </c>
       <c r="H77">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I77">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J77">
-        <v>0.008418326048243484</v>
+        <v>0.01052290756030435</v>
       </c>
       <c r="K77">
-        <v>0.008418326048243484</v>
+        <v>0.01052290756030435</v>
       </c>
     </row>
     <row r="78">
@@ -3867,16 +3867,16 @@
         <v>1958</v>
       </c>
       <c r="H78">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="I78">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="J78">
-        <v>0.06077630234933606</v>
+        <v>0.07967313585291114</v>
       </c>
       <c r="K78">
-        <v>0.06077630234933606</v>
+        <v>0.07967313585291114</v>
       </c>
     </row>
     <row r="79">
@@ -3912,16 +3912,16 @@
         <v>8691</v>
       </c>
       <c r="H79">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I79">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J79">
-        <v>0.00989529398228052</v>
+        <v>0.01196640202508342</v>
       </c>
       <c r="K79">
-        <v>0.00989529398228052</v>
+        <v>0.01196640202508342</v>
       </c>
     </row>
     <row r="80">
@@ -3957,16 +3957,16 @@
         <v>2700</v>
       </c>
       <c r="H80">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="I80">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="J80">
-        <v>0.04259259259259259</v>
+        <v>0.05814814814814815</v>
       </c>
       <c r="K80">
-        <v>0.04259259259259259</v>
+        <v>0.05814814814814815</v>
       </c>
     </row>
     <row r="81">
@@ -4002,16 +4002,16 @@
         <v>7398</v>
       </c>
       <c r="H81">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="I81">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="J81">
-        <v>0.01013787510137875</v>
+        <v>0.01513922681805894</v>
       </c>
       <c r="K81">
-        <v>0.01013787510137875</v>
+        <v>0.01513922681805894</v>
       </c>
     </row>
     <row r="82">
@@ -4047,16 +4047,16 @@
         <v>2444</v>
       </c>
       <c r="H82">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I82">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="J82">
-        <v>0.02700490998363339</v>
+        <v>0.03477905073649754</v>
       </c>
       <c r="K82">
-        <v>0.02700490998363339</v>
+        <v>0.03477905073649754</v>
       </c>
     </row>
     <row r="83">
@@ -4092,16 +4092,16 @@
         <v>12362</v>
       </c>
       <c r="H83">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="I83">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J83">
-        <v>0.02232648438763954</v>
+        <v>0.02475327616890471</v>
       </c>
       <c r="K83">
-        <v>0.01973790648762336</v>
+        <v>0.021760232972011</v>
       </c>
     </row>
     <row r="84">
@@ -4137,16 +4137,16 @@
         <v>30903</v>
       </c>
       <c r="H84">
-        <v>418</v>
+        <v>521</v>
       </c>
       <c r="I84">
-        <v>381</v>
+        <v>461</v>
       </c>
       <c r="J84">
-        <v>0.01352619486781219</v>
+        <v>0.01685920460796686</v>
       </c>
       <c r="K84">
-        <v>0.01232890010678575</v>
+        <v>0.0149176455360321</v>
       </c>
     </row>
     <row r="85">
@@ -4182,16 +4182,16 @@
         <v>5926</v>
       </c>
       <c r="H85">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="I85">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="J85">
-        <v>0.02227472156598043</v>
+        <v>0.0275059061761728</v>
       </c>
       <c r="K85">
-        <v>0.01839352008099899</v>
+        <v>0.02362470469119136</v>
       </c>
     </row>
     <row r="86">
@@ -4227,16 +4227,16 @@
         <v>4986</v>
       </c>
       <c r="H86">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="I86">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="J86">
-        <v>0.01905334937825913</v>
+        <v>0.02266345768150822</v>
       </c>
       <c r="K86">
-        <v>0.01784997994384276</v>
+        <v>0.02146008824709186</v>
       </c>
     </row>
     <row r="87">
@@ -4272,16 +4272,16 @@
         <v>13593</v>
       </c>
       <c r="H87">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="I87">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J87">
-        <v>0.01817111748694181</v>
+        <v>0.01971603030971824</v>
       </c>
       <c r="K87">
-        <v>0.01596409916868977</v>
+        <v>0.0175090119914662</v>
       </c>
     </row>
     <row r="88">
@@ -4317,16 +4317,16 @@
         <v>1447</v>
       </c>
       <c r="H88">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I88">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="J88">
-        <v>0.0359364201796821</v>
+        <v>0.0469937802349689</v>
       </c>
       <c r="K88">
-        <v>0.0359364201796821</v>
+        <v>0.0469937802349689</v>
       </c>
     </row>
     <row r="89">
@@ -4362,16 +4362,16 @@
         <v>1070</v>
       </c>
       <c r="H89">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I89">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J89">
-        <v>0.01682242990654206</v>
+        <v>0.02710280373831776</v>
       </c>
       <c r="K89">
-        <v>0.01682242990654206</v>
+        <v>0.02710280373831776</v>
       </c>
     </row>
     <row r="90">
@@ -4407,16 +4407,16 @@
         <v>24969</v>
       </c>
       <c r="H90">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="I90">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="J90">
-        <v>0.01678080820217069</v>
+        <v>0.02006488045176018</v>
       </c>
       <c r="K90">
-        <v>0.01377708358364372</v>
+        <v>0.01569946733950098</v>
       </c>
     </row>
     <row r="91">
@@ -4452,16 +4452,16 @@
         <v>2322</v>
       </c>
       <c r="H91">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="I91">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="J91">
-        <v>0.02540913006029285</v>
+        <v>0.03617571059431524</v>
       </c>
       <c r="K91">
-        <v>0.02540913006029285</v>
+        <v>0.03617571059431524</v>
       </c>
     </row>
     <row r="92">
@@ -4497,16 +4497,16 @@
         <v>4532</v>
       </c>
       <c r="H92">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I92">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J92">
-        <v>0.008826125330979699</v>
+        <v>0.01235657546337158</v>
       </c>
       <c r="K92">
-        <v>0.006398940864960283</v>
+        <v>0.009929390997352162</v>
       </c>
     </row>
     <row r="93">
@@ -4542,16 +4542,16 @@
         <v>2234</v>
       </c>
       <c r="H93">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="I93">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J93">
-        <v>0.04341987466427932</v>
+        <v>0.04923903312444047</v>
       </c>
       <c r="K93">
-        <v>0.04341987466427932</v>
+        <v>0.04923903312444047</v>
       </c>
     </row>
     <row r="94">
@@ -4587,16 +4587,16 @@
         <v>2848</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>0.003160112359550562</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.003160112359550562</v>
       </c>
     </row>
     <row r="95">
@@ -4632,16 +4632,16 @@
         <v>1974</v>
       </c>
       <c r="H95">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I95">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J95">
-        <v>0.008611955420466059</v>
+        <v>0.01925025329280649</v>
       </c>
       <c r="K95">
-        <v>0.008611955420466059</v>
+        <v>0.01925025329280649</v>
       </c>
     </row>
     <row r="96">
@@ -4677,16 +4677,16 @@
         <v>8236</v>
       </c>
       <c r="H96">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="I96">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J96">
-        <v>0.02574065080135989</v>
+        <v>0.02841185041282176</v>
       </c>
       <c r="K96">
-        <v>0.02173385138416707</v>
+        <v>0.02440505099562894</v>
       </c>
     </row>
     <row r="97">
@@ -4722,16 +4722,16 @@
         <v>31935</v>
       </c>
       <c r="H97">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="I97">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="J97">
-        <v>0.005448567402536402</v>
+        <v>0.006106153123532175</v>
       </c>
       <c r="K97">
-        <v>0.004321277595115077</v>
+        <v>0.00497886331611085</v>
       </c>
     </row>
     <row r="98">
@@ -4767,16 +4767,16 @@
         <v>32879</v>
       </c>
       <c r="H98">
-        <v>445</v>
+        <v>524</v>
       </c>
       <c r="I98">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="J98">
-        <v>0.01353447489278871</v>
+        <v>0.01593722436813772</v>
       </c>
       <c r="K98">
-        <v>0.01058426351166398</v>
+        <v>0.01256120928252076</v>
       </c>
     </row>
     <row r="99">
@@ -4812,16 +4812,16 @@
         <v>2729</v>
       </c>
       <c r="H99">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="I99">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="J99">
-        <v>0.03994137046537193</v>
+        <v>0.0575302308537926</v>
       </c>
       <c r="K99">
-        <v>0.03444485159399047</v>
+        <v>0.05020153902528399</v>
       </c>
     </row>
     <row r="100">
@@ -4857,16 +4857,16 @@
         <v>11338</v>
       </c>
       <c r="H100">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="I100">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="J100">
-        <v>0.02504850943729053</v>
+        <v>0.02822367260539778</v>
       </c>
       <c r="K100">
-        <v>0.02284353501499383</v>
+        <v>0.02443111659904745</v>
       </c>
     </row>
     <row r="101">
@@ -4902,16 +4902,16 @@
         <v>9357</v>
       </c>
       <c r="H101">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I101">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J101">
-        <v>0.001389334188308219</v>
+        <v>0.00459549000748103</v>
       </c>
       <c r="K101">
-        <v>0.001389334188308219</v>
+        <v>0.00459549000748103</v>
       </c>
     </row>
     <row r="102">
@@ -4947,16 +4947,16 @@
         <v>5322</v>
       </c>
       <c r="H102">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I102">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J102">
-        <v>0.02367531003382187</v>
+        <v>0.02668169860954528</v>
       </c>
       <c r="K102">
-        <v>0.02367531003382187</v>
+        <v>0.02668169860954528</v>
       </c>
     </row>
     <row r="103">
@@ -4992,16 +4992,16 @@
         <v>25056</v>
       </c>
       <c r="H103">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="I103">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="J103">
-        <v>0.01995530012771392</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K103">
-        <v>0.01784003831417625</v>
+        <v>0.01871807151979566</v>
       </c>
     </row>
     <row r="104">
@@ -5037,16 +5037,16 @@
         <v>979</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>0.007150153217568948</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>0.007150153217568948</v>
       </c>
     </row>
     <row r="105">
@@ -5082,16 +5082,16 @@
         <v>1284</v>
       </c>
       <c r="H105">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I105">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J105">
-        <v>0.02881619937694704</v>
+        <v>0.03660436137071651</v>
       </c>
       <c r="K105">
-        <v>0.02881619937694704</v>
+        <v>0.03660436137071651</v>
       </c>
     </row>
     <row r="106">
@@ -5127,16 +5127,16 @@
         <v>38292</v>
       </c>
       <c r="H106">
-        <v>745</v>
+        <v>805</v>
       </c>
       <c r="I106">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="J106">
-        <v>0.01945576099446359</v>
+        <v>0.02102266792019221</v>
       </c>
       <c r="K106">
-        <v>0.01681813433615377</v>
+        <v>0.0174187819910164</v>
       </c>
     </row>
     <row r="107">
@@ -5172,16 +5172,16 @@
         <v>6093</v>
       </c>
       <c r="H107">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="I107">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="J107">
-        <v>0.04267191859510914</v>
+        <v>0.05186279336944034</v>
       </c>
       <c r="K107">
-        <v>0.03971770884621697</v>
+        <v>0.04890858362054817</v>
       </c>
     </row>
     <row r="108">
@@ -5217,16 +5217,16 @@
         <v>4485</v>
       </c>
       <c r="H108">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="I108">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="J108">
-        <v>0.03054626532887402</v>
+        <v>0.03991081382385731</v>
       </c>
       <c r="K108">
-        <v>0.03054626532887402</v>
+        <v>0.03589743589743589</v>
       </c>
     </row>
     <row r="109">
@@ -5262,16 +5262,16 @@
         <v>2666</v>
       </c>
       <c r="H109">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I109">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J109">
-        <v>0.0191297824456114</v>
+        <v>0.02175543885971493</v>
       </c>
       <c r="K109">
-        <v>0.0191297824456114</v>
+        <v>0.02175543885971493</v>
       </c>
     </row>
     <row r="110">
@@ -5307,16 +5307,16 @@
         <v>8968</v>
       </c>
       <c r="H110">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="I110">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="J110">
-        <v>0.02553523639607493</v>
+        <v>0.02910347903657449</v>
       </c>
       <c r="K110">
-        <v>0.02553523639607493</v>
+        <v>0.02910347903657449</v>
       </c>
     </row>
     <row r="111">
@@ -5352,16 +5352,16 @@
         <v>1842</v>
       </c>
       <c r="H111">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I111">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J111">
-        <v>0.03908794788273615</v>
+        <v>0.05211726384364821</v>
       </c>
       <c r="K111">
-        <v>0.03908794788273615</v>
+        <v>0.05211726384364821</v>
       </c>
     </row>
     <row r="112">
@@ -5397,16 +5397,16 @@
         <v>5323</v>
       </c>
       <c r="H112">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="I112">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J112">
-        <v>0.01841067067443171</v>
+        <v>0.02348299830922412</v>
       </c>
       <c r="K112">
-        <v>0.01841067067443171</v>
+        <v>0.02348299830922412</v>
       </c>
     </row>
     <row r="113">
@@ -5442,16 +5442,16 @@
         <v>1630</v>
       </c>
       <c r="H113">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I113">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J113">
-        <v>0.04785276073619632</v>
+        <v>0.05889570552147239</v>
       </c>
       <c r="K113">
-        <v>0.0441717791411043</v>
+        <v>0.05521472392638037</v>
       </c>
     </row>
     <row r="114">
@@ -5487,16 +5487,16 @@
         <v>2643</v>
       </c>
       <c r="H114">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="I114">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J114">
-        <v>0.04653802497162315</v>
+        <v>0.05561861520998865</v>
       </c>
       <c r="K114">
-        <v>0.04388951948543322</v>
+        <v>0.05297010972379872</v>
       </c>
     </row>
     <row r="115">
@@ -5532,16 +5532,16 @@
         <v>4496</v>
       </c>
       <c r="H115">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I115">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J115">
-        <v>0.02290925266903915</v>
+        <v>0.03002669039145908</v>
       </c>
       <c r="K115">
-        <v>0.02290925266903915</v>
+        <v>0.02891459074733096</v>
       </c>
     </row>
     <row r="116">
@@ -5577,16 +5577,16 @@
         <v>6989</v>
       </c>
       <c r="H116">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I116">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J116">
-        <v>0.005294033481184719</v>
+        <v>0.008441837172699957</v>
       </c>
       <c r="K116">
-        <v>0.005294033481184719</v>
+        <v>0.008441837172699957</v>
       </c>
     </row>
     <row r="117">
@@ -5622,16 +5622,16 @@
         <v>26872</v>
       </c>
       <c r="H117">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I117">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J117">
-        <v>0.004912176242929443</v>
+        <v>0.005284310806787734</v>
       </c>
       <c r="K117">
-        <v>0.004912176242929443</v>
+        <v>0.005284310806787734</v>
       </c>
     </row>
     <row r="118">
@@ -5667,16 +5667,16 @@
         <v>2035</v>
       </c>
       <c r="H118">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I118">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="J118">
-        <v>0.03882063882063882</v>
+        <v>0.04914004914004914</v>
       </c>
       <c r="K118">
-        <v>0.03882063882063882</v>
+        <v>0.04914004914004914</v>
       </c>
     </row>
     <row r="119">
@@ -5712,16 +5712,16 @@
         <v>27939</v>
       </c>
       <c r="H119">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="I119">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="J119">
-        <v>0.01206199219728695</v>
+        <v>0.01302838326353842</v>
       </c>
       <c r="K119">
-        <v>0.01102401660760943</v>
+        <v>0.01170406958015677</v>
       </c>
     </row>
     <row r="120">
@@ -5757,16 +5757,16 @@
         <v>3041</v>
       </c>
       <c r="H120">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I120">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J120">
-        <v>0.01973035185794147</v>
+        <v>0.02663597500822098</v>
       </c>
       <c r="K120">
-        <v>0.01973035185794147</v>
+        <v>0.02663597500822098</v>
       </c>
     </row>
     <row r="121">
@@ -5802,16 +5802,16 @@
         <v>13437</v>
       </c>
       <c r="H121">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="I121">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J121">
-        <v>0.02344273275284662</v>
+        <v>0.02560095259358488</v>
       </c>
       <c r="K121">
-        <v>0.02106124879065268</v>
+        <v>0.02321946863139094</v>
       </c>
     </row>
     <row r="122">
@@ -5847,16 +5847,16 @@
         <v>4787</v>
       </c>
       <c r="H122">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I122">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J122">
-        <v>0.01274284520576562</v>
+        <v>0.01420513891790265</v>
       </c>
       <c r="K122">
-        <v>0.01274284520576562</v>
+        <v>0.01420513891790265</v>
       </c>
     </row>
     <row r="123">
@@ -5892,16 +5892,16 @@
         <v>1268</v>
       </c>
       <c r="H123">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I123">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J123">
-        <v>0.04495268138801262</v>
+        <v>0.06309148264984227</v>
       </c>
       <c r="K123">
-        <v>0.04495268138801262</v>
+        <v>0.06309148264984227</v>
       </c>
     </row>
     <row r="124">
@@ -5937,16 +5937,16 @@
         <v>19827</v>
       </c>
       <c r="H124">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="I124">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="J124">
-        <v>0.02158672517274424</v>
+        <v>0.02420941140868513</v>
       </c>
       <c r="K124">
-        <v>0.02012407323346951</v>
+        <v>0.02214152418419327</v>
       </c>
     </row>
     <row r="125">
@@ -5982,16 +5982,16 @@
         <v>1776</v>
       </c>
       <c r="H125">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="I125">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="J125">
-        <v>0.02083333333333333</v>
+        <v>0.03772522522522523</v>
       </c>
       <c r="K125">
-        <v>0.02083333333333333</v>
+        <v>0.03772522522522523</v>
       </c>
     </row>
     <row r="126">
@@ -6027,16 +6027,16 @@
         <v>3879</v>
       </c>
       <c r="H126">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="I126">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="J126">
-        <v>0.01417891209074504</v>
+        <v>0.02423304975509152</v>
       </c>
       <c r="K126">
-        <v>0.01263212168084558</v>
+        <v>0.01985047692704305</v>
       </c>
     </row>
     <row r="127">
@@ -6072,16 +6072,16 @@
         <v>1222</v>
       </c>
       <c r="H127">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="I127">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="J127">
-        <v>0.06464811783960721</v>
+        <v>0.08346972176759411</v>
       </c>
       <c r="K127">
-        <v>0.06464811783960721</v>
+        <v>0.08346972176759411</v>
       </c>
     </row>
     <row r="128">
@@ -6117,16 +6117,16 @@
         <v>1311</v>
       </c>
       <c r="H128">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I128">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="J128">
-        <v>0.02822273073989321</v>
+        <v>0.04805491990846682</v>
       </c>
       <c r="K128">
-        <v>0.02822273073989321</v>
+        <v>0.04424103737604882</v>
       </c>
     </row>
     <row r="129">
@@ -6162,16 +6162,16 @@
         <v>6938</v>
       </c>
       <c r="H129">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="I129">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J129">
-        <v>0.02652061112712597</v>
+        <v>0.03070049005477083</v>
       </c>
       <c r="K129">
-        <v>0.02652061112712597</v>
+        <v>0.03070049005477083</v>
       </c>
     </row>
     <row r="130">
@@ -6207,16 +6207,16 @@
         <v>10023</v>
       </c>
       <c r="H130">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="I130">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="J130">
-        <v>0.02404469719644817</v>
+        <v>0.02713758355781702</v>
       </c>
       <c r="K130">
-        <v>0.02304699191858725</v>
+        <v>0.0248428614187369</v>
       </c>
     </row>
     <row r="131">
@@ -6252,16 +6252,16 @@
         <v>47006</v>
       </c>
       <c r="H131">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="I131">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="J131">
-        <v>0.009807258647832192</v>
+        <v>0.01063693996511084</v>
       </c>
       <c r="K131">
-        <v>0.008445730332298005</v>
+        <v>0.009105220610134876</v>
       </c>
     </row>
     <row r="132">
@@ -6297,16 +6297,16 @@
         <v>1380</v>
       </c>
       <c r="H132">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I132">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J132">
-        <v>0.02173913043478261</v>
+        <v>0.02681159420289855</v>
       </c>
       <c r="K132">
-        <v>0.02173913043478261</v>
+        <v>0.02681159420289855</v>
       </c>
     </row>
     <row r="133">
@@ -6342,16 +6342,16 @@
         <v>7037</v>
       </c>
       <c r="H133">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I133">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J133">
-        <v>0.0196106295296291</v>
+        <v>0.02074747761830325</v>
       </c>
       <c r="K133">
-        <v>0.01890009947420776</v>
+        <v>0.02003694756288191</v>
       </c>
     </row>
     <row r="134">
@@ -6387,16 +6387,16 @@
         <v>2237</v>
       </c>
       <c r="H134">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I134">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J134">
-        <v>0.03352704514975414</v>
+        <v>0.03755029056772463</v>
       </c>
       <c r="K134">
-        <v>0.03352704514975414</v>
+        <v>0.03755029056772463</v>
       </c>
     </row>
     <row r="135">
@@ -6432,16 +6432,16 @@
         <v>43306</v>
       </c>
       <c r="H135">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="I135">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="J135">
-        <v>0.01570221216459613</v>
+        <v>0.0168106036115088</v>
       </c>
       <c r="K135">
-        <v>0.01450145476377407</v>
+        <v>0.01528656537200388</v>
       </c>
     </row>
     <row r="136">
@@ -6477,16 +6477,16 @@
         <v>17349</v>
       </c>
       <c r="H136">
-        <v>459</v>
+        <v>550</v>
       </c>
       <c r="I136">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="J136">
-        <v>0.02645685630295694</v>
+        <v>0.03170211539570004</v>
       </c>
       <c r="K136">
-        <v>0.02432416853997349</v>
+        <v>0.02801314196783676</v>
       </c>
     </row>
     <row r="137">
@@ -6522,16 +6522,16 @@
         <v>20900</v>
       </c>
       <c r="H137">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="I137">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="J137">
-        <v>0.01464114832535885</v>
+        <v>0.01708133971291866</v>
       </c>
       <c r="K137">
-        <v>0.01440191387559809</v>
+        <v>0.01636363636363636</v>
       </c>
     </row>
     <row r="138">
@@ -6567,16 +6567,16 @@
         <v>28848</v>
       </c>
       <c r="H138">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="I138">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="J138">
-        <v>0.01234054353854687</v>
+        <v>0.0136924570160843</v>
       </c>
       <c r="K138">
-        <v>0.01098863006100943</v>
+        <v>0.01199389905712701</v>
       </c>
     </row>
     <row r="139">
@@ -6612,16 +6612,16 @@
         <v>18058</v>
       </c>
       <c r="H139">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I139">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="J139">
-        <v>0.01545021597076088</v>
+        <v>0.01749916934322738</v>
       </c>
       <c r="K139">
-        <v>0.01234909735297375</v>
+        <v>0.01428729648909071</v>
       </c>
     </row>
     <row r="140">
@@ -6657,16 +6657,16 @@
         <v>10445</v>
       </c>
       <c r="H140">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I140">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J140">
-        <v>0.01876495931067496</v>
+        <v>0.02029679272379129</v>
       </c>
       <c r="K140">
-        <v>0.01589277166108186</v>
+        <v>0.01742460507419818</v>
       </c>
     </row>
     <row r="141">
@@ -6702,16 +6702,16 @@
         <v>116986</v>
       </c>
       <c r="H141">
-        <v>1238</v>
+        <v>1411</v>
       </c>
       <c r="I141">
-        <v>1057</v>
+        <v>1195</v>
       </c>
       <c r="J141">
-        <v>0.01058246285880362</v>
+        <v>0.01206127228899185</v>
       </c>
       <c r="K141">
-        <v>0.00903526917750842</v>
+        <v>0.01021489750910365</v>
       </c>
     </row>
     <row r="142">
@@ -6747,16 +6747,16 @@
         <v>24404</v>
       </c>
       <c r="H142">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="I142">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="J142">
-        <v>0.01831666939845927</v>
+        <v>0.02253728896902147</v>
       </c>
       <c r="K142">
-        <v>0.01659564005900672</v>
+        <v>0.02016062940501557</v>
       </c>
     </row>
     <row r="143">
@@ -6792,16 +6792,16 @@
         <v>2241</v>
       </c>
       <c r="H143">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I143">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J143">
-        <v>0.02409638554216868</v>
+        <v>0.03391343150379295</v>
       </c>
       <c r="K143">
-        <v>0.02409638554216868</v>
+        <v>0.03391343150379295</v>
       </c>
     </row>
     <row r="144">
@@ -6837,16 +6837,16 @@
         <v>8496</v>
       </c>
       <c r="H144">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="I144">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J144">
-        <v>0.01706685499058381</v>
+        <v>0.01895009416195857</v>
       </c>
       <c r="K144">
-        <v>0.01483050847457627</v>
+        <v>0.01671374764595104</v>
       </c>
     </row>
     <row r="145">
@@ -6882,16 +6882,16 @@
         <v>6192</v>
       </c>
       <c r="H145">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="I145">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J145">
-        <v>0.02890826873385013</v>
+        <v>0.03229974160206718</v>
       </c>
       <c r="K145">
-        <v>0.02890826873385013</v>
+        <v>0.03229974160206718</v>
       </c>
     </row>
     <row r="146">
@@ -6927,16 +6927,16 @@
         <v>13089</v>
       </c>
       <c r="H146">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="I146">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J146">
-        <v>0.01306440522576209</v>
+        <v>0.01443960577584231</v>
       </c>
       <c r="K146">
-        <v>0.01306440522576209</v>
+        <v>0.01443960577584231</v>
       </c>
     </row>
     <row r="147">
@@ -6972,16 +6972,16 @@
         <v>2458</v>
       </c>
       <c r="H147">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I147">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="J147">
-        <v>0.01952807160292921</v>
+        <v>0.03458096013018715</v>
       </c>
       <c r="K147">
-        <v>0.01952807160292921</v>
+        <v>0.03458096013018715</v>
       </c>
     </row>
     <row r="148">
@@ -7017,16 +7017,16 @@
         <v>544</v>
       </c>
       <c r="H148">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I148">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J148">
-        <v>0.02389705882352941</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="K148">
-        <v>0.02389705882352941</v>
+        <v>0.05147058823529412</v>
       </c>
     </row>
     <row r="149">
@@ -7062,16 +7062,16 @@
         <v>2845</v>
       </c>
       <c r="H149">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I149">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J149">
-        <v>0.02073813708260105</v>
+        <v>0.02390158172231986</v>
       </c>
       <c r="K149">
-        <v>0.02073813708260105</v>
+        <v>0.02390158172231986</v>
       </c>
     </row>
     <row r="150">
@@ -7107,16 +7107,16 @@
         <v>1157</v>
       </c>
       <c r="H150">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I150">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J150">
-        <v>0.01901469317199654</v>
+        <v>0.03197925669835782</v>
       </c>
       <c r="K150">
-        <v>0.01901469317199654</v>
+        <v>0.03197925669835782</v>
       </c>
     </row>
     <row r="151">
@@ -7152,16 +7152,16 @@
         <v>2565</v>
       </c>
       <c r="H151">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I151">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J151">
-        <v>0.005458089668615985</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="K151">
-        <v>0.005458089668615985</v>
+        <v>0.01169590643274854</v>
       </c>
     </row>
     <row r="152">
@@ -7197,16 +7197,16 @@
         <v>48715</v>
       </c>
       <c r="H152">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="I152">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="J152">
-        <v>0.008642102021964488</v>
+        <v>0.00915529097813815</v>
       </c>
       <c r="K152">
-        <v>0.007143590269937391</v>
+        <v>0.007533613876629375</v>
       </c>
     </row>
     <row r="153">
@@ -7242,16 +7242,16 @@
         <v>1215</v>
       </c>
       <c r="H153">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I153">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J153">
-        <v>0.01563786008230453</v>
+        <v>0.02139917695473251</v>
       </c>
       <c r="K153">
-        <v>0.01563786008230453</v>
+        <v>0.02139917695473251</v>
       </c>
     </row>
     <row r="154">
@@ -7287,16 +7287,16 @@
         <v>2352</v>
       </c>
       <c r="H154">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I154">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="J154">
-        <v>0.05187074829931973</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="K154">
-        <v>0.04889455782312925</v>
+        <v>0.05654761904761905</v>
       </c>
     </row>
     <row r="155">
@@ -7332,16 +7332,16 @@
         <v>604</v>
       </c>
       <c r="H155">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I155">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J155">
-        <v>0.02814569536423841</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="K155">
-        <v>0.02814569536423841</v>
+        <v>0.06622516556291391</v>
       </c>
     </row>
     <row r="156">
@@ -7377,16 +7377,16 @@
         <v>1983</v>
       </c>
       <c r="H156">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I156">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J156">
-        <v>0.01765002521432173</v>
+        <v>0.02924861321230459</v>
       </c>
       <c r="K156">
-        <v>0.01765002521432173</v>
+        <v>0.02924861321230459</v>
       </c>
     </row>
     <row r="157">
@@ -7422,16 +7422,16 @@
         <v>20574</v>
       </c>
       <c r="H157">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="I157">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="J157">
-        <v>0.0217750558957908</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="K157">
-        <v>0.01890735880237192</v>
+        <v>0.0213862156119374</v>
       </c>
     </row>
     <row r="158">
@@ -7467,16 +7467,16 @@
         <v>28470</v>
       </c>
       <c r="H158">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="I158">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="J158">
-        <v>0.01429574991218827</v>
+        <v>0.01513874253600281</v>
       </c>
       <c r="K158">
-        <v>0.01183702142606252</v>
+        <v>0.01260976466455918</v>
       </c>
     </row>
     <row r="159">
@@ -7512,16 +7512,16 @@
         <v>1301</v>
       </c>
       <c r="H159">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I159">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J159">
-        <v>0.02920830130668716</v>
+        <v>0.05149884704073789</v>
       </c>
       <c r="K159">
-        <v>0.02920830130668716</v>
+        <v>0.05149884704073789</v>
       </c>
     </row>
     <row r="160">
@@ -7557,16 +7557,16 @@
         <v>28768</v>
       </c>
       <c r="H160">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="I160">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="J160">
-        <v>0.01383481646273637</v>
+        <v>0.01706757508342603</v>
       </c>
       <c r="K160">
-        <v>0.010706340378198</v>
+        <v>0.01293103448275862</v>
       </c>
     </row>
     <row r="161">
@@ -7602,16 +7602,16 @@
         <v>11523</v>
       </c>
       <c r="H161">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="I161">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="J161">
-        <v>0.02204287078017877</v>
+        <v>0.02351818102924585</v>
       </c>
       <c r="K161">
-        <v>0.02108825826607654</v>
+        <v>0.02256356851514362</v>
       </c>
     </row>
     <row r="162">
@@ -7647,16 +7647,16 @@
         <v>94201</v>
       </c>
       <c r="H162">
-        <v>726</v>
+        <v>792</v>
       </c>
       <c r="I162">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="J162">
-        <v>0.00770692455494103</v>
+        <v>0.008407554059935669</v>
       </c>
       <c r="K162">
-        <v>0.005456417660109765</v>
+        <v>0.005997813186696532</v>
       </c>
     </row>
     <row r="163">
@@ -7692,16 +7692,16 @@
         <v>23690</v>
       </c>
       <c r="H163">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="I163">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="J163">
-        <v>0.01992401857323765</v>
+        <v>0.0212325875897003</v>
       </c>
       <c r="K163">
-        <v>0.01815111861544956</v>
+        <v>0.0194596876319122</v>
       </c>
     </row>
     <row r="164">
@@ -7737,16 +7737,16 @@
         <v>986</v>
       </c>
       <c r="H164">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I164">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J164">
-        <v>0.03245436105476673</v>
+        <v>0.0436105476673428</v>
       </c>
       <c r="K164">
-        <v>0.03245436105476673</v>
+        <v>0.0436105476673428</v>
       </c>
     </row>
     <row r="165">
@@ -7782,16 +7782,16 @@
         <v>2212</v>
       </c>
       <c r="H165">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I165">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J165">
-        <v>0.01717902350813743</v>
+        <v>0.02260397830018083</v>
       </c>
       <c r="K165">
-        <v>0.01717902350813743</v>
+        <v>0.02260397830018083</v>
       </c>
     </row>
     <row r="166">
@@ -7827,16 +7827,16 @@
         <v>864</v>
       </c>
       <c r="H166">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I166">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J166">
-        <v>0.009259259259259259</v>
+        <v>0.01967592592592593</v>
       </c>
       <c r="K166">
-        <v>0.009259259259259259</v>
+        <v>0.01967592592592593</v>
       </c>
     </row>
     <row r="167">
@@ -7872,16 +7872,16 @@
         <v>3226</v>
       </c>
       <c r="H167">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I167">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="J167">
-        <v>0.02572845629262244</v>
+        <v>0.03223806571605704</v>
       </c>
       <c r="K167">
-        <v>0.02572845629262244</v>
+        <v>0.03223806571605704</v>
       </c>
     </row>
     <row r="168">
@@ -7917,16 +7917,16 @@
         <v>9357</v>
       </c>
       <c r="H168">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="I168">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J168">
-        <v>0.01816821630864593</v>
+        <v>0.02009190980014962</v>
       </c>
       <c r="K168">
-        <v>0.01613765095650315</v>
+        <v>0.01806134444800684</v>
       </c>
     </row>
     <row r="169">
@@ -7962,16 +7962,16 @@
         <v>1886</v>
       </c>
       <c r="H169">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I169">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J169">
-        <v>0.01484623541887593</v>
+        <v>0.02916224814422057</v>
       </c>
       <c r="K169">
-        <v>0.01484623541887593</v>
+        <v>0.02916224814422057</v>
       </c>
     </row>
     <row r="170">
@@ -8007,16 +8007,16 @@
         <v>5371</v>
       </c>
       <c r="H170">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I170">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J170">
-        <v>0.03686464345559486</v>
+        <v>0.03854030906721281</v>
       </c>
       <c r="K170">
-        <v>0.03593371811580711</v>
+        <v>0.03760938372742506</v>
       </c>
     </row>
     <row r="171">
@@ -8052,16 +8052,16 @@
         <v>10835</v>
       </c>
       <c r="H171">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="I171">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J171">
-        <v>0.01338255652976465</v>
+        <v>0.0148592524227042</v>
       </c>
       <c r="K171">
-        <v>0.01245962159667743</v>
+        <v>0.01347485002307337</v>
       </c>
     </row>
     <row r="172">
@@ -8097,16 +8097,16 @@
         <v>2743</v>
       </c>
       <c r="H172">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I172">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J172">
-        <v>0.02479037550127598</v>
+        <v>0.03135253372220197</v>
       </c>
       <c r="K172">
-        <v>0.02479037550127598</v>
+        <v>0.03135253372220197</v>
       </c>
     </row>
     <row r="173">
@@ -8142,16 +8142,16 @@
         <v>2160</v>
       </c>
       <c r="H173">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I173">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J173">
-        <v>0.02916666666666667</v>
+        <v>0.03425925925925926</v>
       </c>
       <c r="K173">
-        <v>0.02314814814814815</v>
+        <v>0.02824074074074074</v>
       </c>
     </row>
     <row r="174">
@@ -8187,16 +8187,16 @@
         <v>2060</v>
       </c>
       <c r="H174">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I174">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J174">
-        <v>0.02281553398058252</v>
+        <v>0.03349514563106796</v>
       </c>
       <c r="K174">
-        <v>0.02281553398058252</v>
+        <v>0.03349514563106796</v>
       </c>
     </row>
     <row r="175">
@@ -8232,16 +8232,16 @@
         <v>48188</v>
       </c>
       <c r="H175">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="I175">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="J175">
-        <v>0.01039677928114883</v>
+        <v>0.01137212584045821</v>
       </c>
       <c r="K175">
-        <v>0.009193160122852163</v>
+        <v>0.009815721756453889</v>
       </c>
     </row>
     <row r="176">
@@ -8277,16 +8277,16 @@
         <v>7929</v>
       </c>
       <c r="H176">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="I176">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="J176">
-        <v>0.01853953840332955</v>
+        <v>0.02156640181611805</v>
       </c>
       <c r="K176">
-        <v>0.01853953840332955</v>
+        <v>0.02156640181611805</v>
       </c>
     </row>
     <row r="177">
@@ -8322,16 +8322,16 @@
         <v>14783</v>
       </c>
       <c r="H177">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="I177">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="J177">
-        <v>0.0111614692552256</v>
+        <v>0.01312318203341676</v>
       </c>
       <c r="K177">
-        <v>0.01001149969559629</v>
+        <v>0.01197321247378746</v>
       </c>
     </row>
     <row r="178">
@@ -8367,16 +8367,16 @@
         <v>3658</v>
       </c>
       <c r="H178">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I178">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J178">
-        <v>0.007654455986878075</v>
+        <v>0.01148168398031711</v>
       </c>
       <c r="K178">
-        <v>0.007654455986878075</v>
+        <v>0.01148168398031711</v>
       </c>
     </row>
     <row r="179">
@@ -8412,16 +8412,16 @@
         <v>1694</v>
       </c>
       <c r="H179">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I179">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J179">
-        <v>0.03541912632821724</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="K179">
-        <v>0.03541912632821724</v>
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="180">
@@ -8457,16 +8457,16 @@
         <v>17560</v>
       </c>
       <c r="H180">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="I180">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="J180">
-        <v>0.01566059225512529</v>
+        <v>0.01685649202733485</v>
       </c>
       <c r="K180">
-        <v>0.01378132118451025</v>
+        <v>0.01497722095671982</v>
       </c>
     </row>
     <row r="181">
@@ -8502,16 +8502,16 @@
         <v>6180</v>
       </c>
       <c r="H181">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="I181">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="J181">
-        <v>0.01893203883495146</v>
+        <v>0.02297734627831715</v>
       </c>
       <c r="K181">
-        <v>0.01812297734627832</v>
+        <v>0.02216828478964401</v>
       </c>
     </row>
     <row r="182">
@@ -8547,16 +8547,16 @@
         <v>2454</v>
       </c>
       <c r="H182">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="I182">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J182">
-        <v>0.04278728606356969</v>
+        <v>0.04971475142624287</v>
       </c>
       <c r="K182">
-        <v>0.03341483292583537</v>
+        <v>0.04034229828850856</v>
       </c>
     </row>
     <row r="183">
@@ -8592,16 +8592,16 @@
         <v>10904</v>
       </c>
       <c r="H183">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="I183">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="J183">
-        <v>0.02063462949376376</v>
+        <v>0.02577035950110051</v>
       </c>
       <c r="K183">
-        <v>0.01779163609684519</v>
+        <v>0.02246881878209831</v>
       </c>
     </row>
     <row r="184">
@@ -8637,16 +8637,16 @@
         <v>6140</v>
       </c>
       <c r="H184">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I184">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J184">
-        <v>0.02915309446254071</v>
+        <v>0.03029315960912052</v>
       </c>
       <c r="K184">
-        <v>0.02752442996742671</v>
+        <v>0.02866449511400651</v>
       </c>
     </row>
     <row r="185">
@@ -8682,16 +8682,16 @@
         <v>384</v>
       </c>
       <c r="H185">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I185">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J185">
-        <v>0.05729166666666666</v>
+        <v>0.078125</v>
       </c>
       <c r="K185">
-        <v>0.05729166666666666</v>
+        <v>0.078125</v>
       </c>
     </row>
     <row r="186">
@@ -8727,16 +8727,16 @@
         <v>14665</v>
       </c>
       <c r="H186">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="I186">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="J186">
-        <v>0.01670644391408115</v>
+        <v>0.01820661438799864</v>
       </c>
       <c r="K186">
-        <v>0.0152744630071599</v>
+        <v>0.0166382543470849</v>
       </c>
     </row>
     <row r="187">
@@ -8772,16 +8772,16 @@
         <v>32816</v>
       </c>
       <c r="H187">
-        <v>847</v>
+        <v>981</v>
       </c>
       <c r="I187">
-        <v>711</v>
+        <v>822</v>
       </c>
       <c r="J187">
-        <v>0.02581058020477816</v>
+        <v>0.02989395416869819</v>
       </c>
       <c r="K187">
-        <v>0.02166626036079961</v>
+        <v>0.02504875670404681</v>
       </c>
     </row>
     <row r="188">
@@ -8862,16 +8862,16 @@
         <v>52051</v>
       </c>
       <c r="H189">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="I189">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="J189">
-        <v>0.01064340742733089</v>
+        <v>0.0118537588134714</v>
       </c>
       <c r="K189">
-        <v>0.009336996407369695</v>
+        <v>0.01054734779351021</v>
       </c>
     </row>
     <row r="190">
@@ -8907,16 +8907,16 @@
         <v>6714</v>
       </c>
       <c r="H190">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="I190">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="J190">
-        <v>0.02740542150729818</v>
+        <v>0.03246946678582067</v>
       </c>
       <c r="K190">
-        <v>0.02383080131069407</v>
+        <v>0.02889484658921656</v>
       </c>
     </row>
     <row r="191">
@@ -8952,16 +8952,16 @@
         <v>1113</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>0.0008984725965858042</v>
       </c>
     </row>
     <row r="192">
@@ -8997,16 +8997,16 @@
         <v>15083</v>
       </c>
       <c r="H192">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="I192">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="J192">
-        <v>0.0201551415500895</v>
+        <v>0.02320493270569515</v>
       </c>
       <c r="K192">
-        <v>0.01756944904859776</v>
+        <v>0.02022144135782006</v>
       </c>
     </row>
     <row r="193">
@@ -9042,16 +9042,16 @@
         <v>810</v>
       </c>
       <c r="H193">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I193">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J193">
-        <v>0.07654320987654321</v>
+        <v>0.08271604938271605</v>
       </c>
       <c r="K193">
-        <v>0.07654320987654321</v>
+        <v>0.08271604938271605</v>
       </c>
     </row>
     <row r="194">
@@ -9087,16 +9087,16 @@
         <v>16126</v>
       </c>
       <c r="H194">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="I194">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J194">
-        <v>0.01097606349993799</v>
+        <v>0.01234031998015627</v>
       </c>
       <c r="K194">
-        <v>0.01097606349993799</v>
+        <v>0.01234031998015627</v>
       </c>
     </row>
     <row r="195">
@@ -9132,16 +9132,16 @@
         <v>21580</v>
       </c>
       <c r="H195">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="I195">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="J195">
-        <v>0.02145505097312326</v>
+        <v>0.02479147358665431</v>
       </c>
       <c r="K195">
-        <v>0.02117701575532901</v>
+        <v>0.02418906394810009</v>
       </c>
     </row>
     <row r="196">
@@ -9177,16 +9177,16 @@
         <v>24645</v>
       </c>
       <c r="H196">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="I196">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="J196">
-        <v>0.01132075471698113</v>
+        <v>0.0137147494420775</v>
       </c>
       <c r="K196">
-        <v>0.01014404544532359</v>
+        <v>0.01209170217082573</v>
       </c>
     </row>
     <row r="197">
@@ -9222,16 +9222,16 @@
         <v>3301</v>
       </c>
       <c r="H197">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I197">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J197">
-        <v>0.0124204786428355</v>
+        <v>0.01726749469857619</v>
       </c>
       <c r="K197">
-        <v>0.0124204786428355</v>
+        <v>0.01726749469857619</v>
       </c>
     </row>
     <row r="198">
@@ -9267,16 +9267,16 @@
         <v>1808</v>
       </c>
       <c r="H198">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I198">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="J198">
-        <v>0.04258849557522124</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="K198">
-        <v>0.04258849557522124</v>
+        <v>0.05309734513274336</v>
       </c>
     </row>
     <row r="199">
@@ -9312,16 +9312,16 @@
         <v>20521</v>
       </c>
       <c r="H199">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="I199">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="J199">
-        <v>0.007894352127089324</v>
+        <v>0.009941036011890258</v>
       </c>
       <c r="K199">
-        <v>0.007212124165489011</v>
+        <v>0.008868963500804055</v>
       </c>
     </row>
     <row r="200">
@@ -9357,16 +9357,16 @@
         <v>1471</v>
       </c>
       <c r="H200">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I200">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J200">
-        <v>0.02991162474507138</v>
+        <v>0.04146838885112169</v>
       </c>
       <c r="K200">
-        <v>0.02991162474507138</v>
+        <v>0.04146838885112169</v>
       </c>
     </row>
     <row r="201">
@@ -9402,16 +9402,16 @@
         <v>25882</v>
       </c>
       <c r="H201">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="I201">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="J201">
-        <v>0.00969785951626613</v>
+        <v>0.01058650799783633</v>
       </c>
       <c r="K201">
-        <v>0.007997836334131829</v>
+        <v>0.00869330036318677</v>
       </c>
     </row>
     <row r="202">
@@ -9447,16 +9447,16 @@
         <v>6539</v>
       </c>
       <c r="H202">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I202">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="J202">
-        <v>0.01942192995870928</v>
+        <v>0.02186878727634195</v>
       </c>
       <c r="K202">
-        <v>0.01789264413518887</v>
+        <v>0.02033950145282153</v>
       </c>
     </row>
     <row r="203">
@@ -9492,16 +9492,16 @@
         <v>6562</v>
       </c>
       <c r="H203">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I203">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J203">
-        <v>0.01539164888753429</v>
+        <v>0.01722035964644925</v>
       </c>
       <c r="K203">
-        <v>0.01539164888753429</v>
+        <v>0.01722035964644925</v>
       </c>
     </row>
     <row r="204">
@@ -9537,16 +9537,16 @@
         <v>5586</v>
       </c>
       <c r="H204">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="I204">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="J204">
-        <v>0.02738990332975295</v>
+        <v>0.03258145363408521</v>
       </c>
       <c r="K204">
-        <v>0.02488363766559255</v>
+        <v>0.03007518796992481</v>
       </c>
     </row>
     <row r="205">
@@ -9582,16 +9582,16 @@
         <v>4992</v>
       </c>
       <c r="H205">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I205">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J205">
-        <v>0.007411858974358974</v>
+        <v>0.01081730769230769</v>
       </c>
       <c r="K205">
-        <v>0.007411858974358974</v>
+        <v>0.01081730769230769</v>
       </c>
     </row>
     <row r="206">
@@ -9627,16 +9627,16 @@
         <v>2951</v>
       </c>
       <c r="H206">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I206">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="J206">
-        <v>0.01796001355472721</v>
+        <v>0.02507624534056252</v>
       </c>
       <c r="K206">
-        <v>0.01796001355472721</v>
+        <v>0.02507624534056252</v>
       </c>
     </row>
     <row r="207">
@@ -9672,16 +9672,16 @@
         <v>63560</v>
       </c>
       <c r="H207">
-        <v>673</v>
+        <v>748</v>
       </c>
       <c r="I207">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="J207">
-        <v>0.01058842039018251</v>
+        <v>0.01176840780365009</v>
       </c>
       <c r="K207">
-        <v>0.008338577721837635</v>
+        <v>0.009093769666456891</v>
       </c>
     </row>
     <row r="208">
@@ -9717,16 +9717,16 @@
         <v>6510</v>
       </c>
       <c r="H208">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I208">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="J208">
-        <v>0.02227342549923195</v>
+        <v>0.02549923195084485</v>
       </c>
       <c r="K208">
-        <v>0.02227342549923195</v>
+        <v>0.02549923195084485</v>
       </c>
     </row>
     <row r="209">
@@ -9762,16 +9762,16 @@
         <v>4794</v>
       </c>
       <c r="H209">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="I209">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J209">
-        <v>0.03170629954109303</v>
+        <v>0.03566958698372966</v>
       </c>
       <c r="K209">
-        <v>0.03066332916145181</v>
+        <v>0.03337505214851898</v>
       </c>
     </row>
     <row r="210">
@@ -9807,16 +9807,16 @@
         <v>2486</v>
       </c>
       <c r="H210">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I210">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="J210">
-        <v>0.04505229283990346</v>
+        <v>0.05269509251810137</v>
       </c>
       <c r="K210">
-        <v>0.04505229283990346</v>
+        <v>0.05269509251810137</v>
       </c>
     </row>
     <row r="211">
@@ -9852,16 +9852,16 @@
         <v>13266</v>
       </c>
       <c r="H211">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="I211">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="J211">
-        <v>0.01944821347806423</v>
+        <v>0.02223729835670134</v>
       </c>
       <c r="K211">
-        <v>0.01778983868536107</v>
+        <v>0.02057892356399819</v>
       </c>
     </row>
     <row r="212">
@@ -9897,16 +9897,16 @@
         <v>9968</v>
       </c>
       <c r="H212">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="I212">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J212">
-        <v>0.02166934189406099</v>
+        <v>0.02367576243980738</v>
       </c>
       <c r="K212">
-        <v>0.02076645264847512</v>
+        <v>0.02277287319422151</v>
       </c>
     </row>
     <row r="213">
@@ -9942,16 +9942,16 @@
         <v>7389</v>
       </c>
       <c r="H213">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="I213">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J213">
-        <v>0.04087156584111517</v>
+        <v>0.0456083367167411</v>
       </c>
       <c r="K213">
-        <v>0.03207470564352416</v>
+        <v>0.03613479496548924</v>
       </c>
     </row>
     <row r="214">
@@ -9987,16 +9987,16 @@
         <v>18793</v>
       </c>
       <c r="H214">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="I214">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="J214">
-        <v>0.01984781567604959</v>
+        <v>0.02149736604054701</v>
       </c>
       <c r="K214">
-        <v>0.01846432182195498</v>
+        <v>0.0201138721864524</v>
       </c>
     </row>
     <row r="215">
@@ -10032,16 +10032,16 @@
         <v>1891</v>
       </c>
       <c r="H215">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I215">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J215">
-        <v>0.01903754627181386</v>
+        <v>0.02749867794817557</v>
       </c>
       <c r="K215">
-        <v>0.01903754627181386</v>
+        <v>0.02749867794817557</v>
       </c>
     </row>
     <row r="216">
@@ -10077,16 +10077,16 @@
         <v>898</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I216">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J216">
-        <v>0.005567928730512249</v>
+        <v>0.0311804008908686</v>
       </c>
       <c r="K216">
-        <v>0.005567928730512249</v>
+        <v>0.0311804008908686</v>
       </c>
     </row>
     <row r="217">
@@ -10122,16 +10122,16 @@
         <v>717710</v>
       </c>
       <c r="H217">
-        <v>4768</v>
+        <v>5301</v>
       </c>
       <c r="I217">
-        <v>3881</v>
+        <v>4282</v>
       </c>
       <c r="J217">
-        <v>0.006643351771606917</v>
+        <v>0.007385991556478243</v>
       </c>
       <c r="K217">
-        <v>0.005407476557383902</v>
+        <v>0.005966198046564768</v>
       </c>
     </row>
     <row r="218">
@@ -10167,16 +10167,16 @@
         <v>8200</v>
       </c>
       <c r="H218">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="I218">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="J218">
-        <v>0.01646341463414634</v>
+        <v>0.01987804878048781</v>
       </c>
       <c r="K218">
-        <v>0.01512195121951219</v>
+        <v>0.01853658536585366</v>
       </c>
     </row>
     <row r="219">
@@ -10212,16 +10212,16 @@
         <v>3924</v>
       </c>
       <c r="H219">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="I219">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J219">
-        <v>0.04918450560652395</v>
+        <v>0.05300713557594292</v>
       </c>
       <c r="K219">
-        <v>0.04357798165137615</v>
+        <v>0.04740061162079511</v>
       </c>
     </row>
     <row r="220">
@@ -10257,16 +10257,16 @@
         <v>3889</v>
       </c>
       <c r="H220">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I220">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J220">
-        <v>0.007971200822833634</v>
+        <v>0.01131396245821548</v>
       </c>
       <c r="K220">
-        <v>0.007971200822833634</v>
+        <v>0.01131396245821548</v>
       </c>
     </row>
     <row r="221">
@@ -10302,16 +10302,16 @@
         <v>37193</v>
       </c>
       <c r="H221">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="I221">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="J221">
-        <v>0.008281128169279166</v>
+        <v>0.009679240717339284</v>
       </c>
       <c r="K221">
-        <v>0.0061570725674186</v>
+        <v>0.007366977657086011</v>
       </c>
     </row>
     <row r="222">
@@ -10347,16 +10347,16 @@
         <v>423</v>
       </c>
       <c r="H222">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I222">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J222">
-        <v>0.07328605200945626</v>
+        <v>0.08274231678486997</v>
       </c>
       <c r="K222">
-        <v>0.07328605200945626</v>
+        <v>0.08274231678486997</v>
       </c>
     </row>
     <row r="223">
@@ -10392,16 +10392,16 @@
         <v>8420</v>
       </c>
       <c r="H223">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I223">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J223">
-        <v>0.01080760095011877</v>
+        <v>0.01187648456057007</v>
       </c>
       <c r="K223">
-        <v>0.01080760095011877</v>
+        <v>0.01187648456057007</v>
       </c>
     </row>
     <row r="224">
@@ -10437,16 +10437,16 @@
         <v>25994</v>
       </c>
       <c r="H224">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="I224">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="J224">
-        <v>0.007270908671231823</v>
+        <v>0.008963606986227592</v>
       </c>
       <c r="K224">
-        <v>0.006078325767484804</v>
+        <v>0.007771024082480572</v>
       </c>
     </row>
     <row r="225">
@@ -10482,16 +10482,16 @@
         <v>11742</v>
       </c>
       <c r="H225">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="I225">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="J225">
-        <v>0.03295861011752683</v>
+        <v>0.03602452733776188</v>
       </c>
       <c r="K225">
-        <v>0.02801907681825924</v>
+        <v>0.02997785726452052</v>
       </c>
     </row>
     <row r="226">
@@ -10527,16 +10527,16 @@
         <v>7299</v>
       </c>
       <c r="H226">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I226">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J226">
-        <v>0.01835867927113303</v>
+        <v>0.01931771475544595</v>
       </c>
       <c r="K226">
-        <v>0.01835867927113303</v>
+        <v>0.01931771475544595</v>
       </c>
     </row>
     <row r="227">
@@ -10572,16 +10572,16 @@
         <v>1837</v>
       </c>
       <c r="H227">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="I227">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="J227">
-        <v>0.06750136091453457</v>
+        <v>0.08764289602612955</v>
       </c>
       <c r="K227">
-        <v>0.06750136091453457</v>
+        <v>0.08764289602612955</v>
       </c>
     </row>
     <row r="228">
@@ -10617,16 +10617,16 @@
         <v>2484</v>
       </c>
       <c r="H228">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I228">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J228">
-        <v>0.03260869565217391</v>
+        <v>0.04066022544283414</v>
       </c>
       <c r="K228">
-        <v>0.03019323671497584</v>
+        <v>0.03824476650563607</v>
       </c>
     </row>
     <row r="229">
@@ -10662,16 +10662,16 @@
         <v>1958</v>
       </c>
       <c r="H229">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I229">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J229">
-        <v>0.01481103166496425</v>
+        <v>0.02145045965270685</v>
       </c>
       <c r="K229">
-        <v>0.01481103166496425</v>
+        <v>0.02145045965270685</v>
       </c>
     </row>
     <row r="230">
@@ -10707,16 +10707,16 @@
         <v>4413</v>
       </c>
       <c r="H230">
+        <v>179</v>
+      </c>
+      <c r="I230">
         <v>160</v>
       </c>
-      <c r="I230">
-        <v>141</v>
-      </c>
       <c r="J230">
+        <v>0.04056197598005892</v>
+      </c>
+      <c r="K230">
         <v>0.03625651484251077</v>
-      </c>
-      <c r="K230">
-        <v>0.03195105370496261</v>
       </c>
     </row>
     <row r="231">
@@ -10752,16 +10752,16 @@
         <v>31581</v>
       </c>
       <c r="H231">
+        <v>400</v>
+      </c>
+      <c r="I231">
         <v>363</v>
       </c>
-      <c r="I231">
-        <v>325</v>
-      </c>
       <c r="J231">
+        <v>0.01266584338684652</v>
+      </c>
+      <c r="K231">
         <v>0.01149425287356322</v>
-      </c>
-      <c r="K231">
-        <v>0.0102909977518128</v>
       </c>
     </row>
     <row r="232">
@@ -10797,16 +10797,16 @@
         <v>35612</v>
       </c>
       <c r="H232">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="I232">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="J232">
-        <v>0.01184993822307088</v>
+        <v>0.0137594069414804</v>
       </c>
       <c r="K232">
-        <v>0.009968549926990903</v>
+        <v>0.01134449062113894</v>
       </c>
     </row>
     <row r="233">
@@ -10842,16 +10842,16 @@
         <v>6825</v>
       </c>
       <c r="H233">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="I233">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="J233">
-        <v>0.02388278388278388</v>
+        <v>0.02989010989010989</v>
       </c>
       <c r="K233">
-        <v>0.01860805860805861</v>
+        <v>0.02271062271062271</v>
       </c>
     </row>
     <row r="234">
@@ -10887,16 +10887,16 @@
         <v>1395</v>
       </c>
       <c r="H234">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I234">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J234">
-        <v>0.04086021505376344</v>
+        <v>0.05232974910394265</v>
       </c>
       <c r="K234">
-        <v>0.04086021505376344</v>
+        <v>0.05232974910394265</v>
       </c>
     </row>
     <row r="235">
@@ -10932,16 +10932,16 @@
         <v>7883</v>
       </c>
       <c r="H235">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I235">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J235">
-        <v>0.005962197133071166</v>
+        <v>0.007738170747177471</v>
       </c>
       <c r="K235">
-        <v>0.005962197133071166</v>
+        <v>0.007738170747177471</v>
       </c>
     </row>
     <row r="236">
@@ -10977,16 +10977,16 @@
         <v>20099</v>
       </c>
       <c r="H236">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="I236">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="J236">
-        <v>0.01019951241355291</v>
+        <v>0.0124384297726255</v>
       </c>
       <c r="K236">
-        <v>0.00766207273993731</v>
+        <v>0.009154684312652371</v>
       </c>
     </row>
     <row r="237">
@@ -11022,16 +11022,16 @@
         <v>1139</v>
       </c>
       <c r="H237">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I237">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J237">
-        <v>0.02458296751536436</v>
+        <v>0.03511852502194908</v>
       </c>
       <c r="K237">
-        <v>0.02458296751536436</v>
+        <v>0.03511852502194908</v>
       </c>
     </row>
     <row r="238">
@@ -11067,16 +11067,16 @@
         <v>5685</v>
       </c>
       <c r="H238">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="I238">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J238">
-        <v>0.0337730870712401</v>
+        <v>0.03746701846965699</v>
       </c>
       <c r="K238">
-        <v>0.0337730870712401</v>
+        <v>0.03746701846965699</v>
       </c>
     </row>
     <row r="239">
@@ -11112,16 +11112,16 @@
         <v>460</v>
       </c>
       <c r="H239">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I239">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J239">
-        <v>0.01521739130434783</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="K239">
-        <v>0.01521739130434783</v>
+        <v>0.03260869565217391</v>
       </c>
     </row>
     <row r="240">
@@ -11157,16 +11157,16 @@
         <v>2069</v>
       </c>
       <c r="H240">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I240">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J240">
-        <v>0.02706621556307395</v>
+        <v>0.03576607056549058</v>
       </c>
       <c r="K240">
-        <v>0.02416626389560174</v>
+        <v>0.03286611889801837</v>
       </c>
     </row>
     <row r="241">
@@ -11202,16 +11202,16 @@
         <v>4880</v>
       </c>
       <c r="H241">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="I241">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="J241">
-        <v>0.03483606557377049</v>
+        <v>0.03770491803278689</v>
       </c>
       <c r="K241">
-        <v>0.03483606557377049</v>
+        <v>0.03770491803278689</v>
       </c>
     </row>
     <row r="242">
@@ -11247,16 +11247,16 @@
         <v>2502</v>
       </c>
       <c r="H242">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I242">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J242">
-        <v>0.02837729816147083</v>
+        <v>0.03357314148681055</v>
       </c>
       <c r="K242">
-        <v>0.02837729816147083</v>
+        <v>0.03357314148681055</v>
       </c>
     </row>
     <row r="243">
@@ -11292,16 +11292,16 @@
         <v>2438</v>
       </c>
       <c r="H243">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I243">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J243">
-        <v>0.02625102543068089</v>
+        <v>0.03568498769483183</v>
       </c>
       <c r="K243">
-        <v>0.02625102543068089</v>
+        <v>0.03568498769483183</v>
       </c>
     </row>
     <row r="244">
@@ -11337,16 +11337,16 @@
         <v>66231</v>
       </c>
       <c r="H244">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="I244">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="J244">
-        <v>0.008228775044918544</v>
+        <v>0.008681735139134242</v>
       </c>
       <c r="K244">
-        <v>0.006734006734006734</v>
+        <v>0.007126572148993674</v>
       </c>
     </row>
     <row r="245">
@@ -11382,16 +11382,16 @@
         <v>83702</v>
       </c>
       <c r="H245">
-        <v>833</v>
+        <v>966</v>
       </c>
       <c r="I245">
-        <v>726</v>
+        <v>832</v>
       </c>
       <c r="J245">
-        <v>0.009951972473776015</v>
+        <v>0.01154094286874866</v>
       </c>
       <c r="K245">
-        <v>0.008673627870301785</v>
+        <v>0.009940025327949152</v>
       </c>
     </row>
     <row r="246">
@@ -11427,16 +11427,16 @@
         <v>59771</v>
       </c>
       <c r="H246">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="I246">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J246">
-        <v>0.004835120710712553</v>
+        <v>0.004935503839654682</v>
       </c>
       <c r="K246">
-        <v>0.003981864114704455</v>
+        <v>0.004082247243646584</v>
       </c>
     </row>
     <row r="247">
@@ -11472,16 +11472,16 @@
         <v>4572</v>
       </c>
       <c r="H247">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I247">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J247">
-        <v>0.0363079615048119</v>
+        <v>0.03958880139982502</v>
       </c>
       <c r="K247">
-        <v>0.03455818022747156</v>
+        <v>0.03783902012248469</v>
       </c>
     </row>
     <row r="248">
@@ -11517,16 +11517,16 @@
         <v>5756</v>
       </c>
       <c r="H248">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I248">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J248">
-        <v>0.02345378735232801</v>
+        <v>0.0258860319666435</v>
       </c>
       <c r="K248">
-        <v>0.02345378735232801</v>
+        <v>0.0258860319666435</v>
       </c>
     </row>
     <row r="249">
@@ -11562,16 +11562,16 @@
         <v>4216</v>
       </c>
       <c r="H249">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I249">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J249">
-        <v>0.009487666034155597</v>
+        <v>0.01257115749525617</v>
       </c>
       <c r="K249">
-        <v>0.009487666034155597</v>
+        <v>0.01257115749525617</v>
       </c>
     </row>
     <row r="250">
@@ -11607,16 +11607,16 @@
         <v>2979</v>
       </c>
       <c r="H250">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I250">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J250">
-        <v>0.03323262839879154</v>
+        <v>0.0355824102047667</v>
       </c>
       <c r="K250">
-        <v>0.03054716347767707</v>
+        <v>0.03289694528365223</v>
       </c>
     </row>
     <row r="251">
@@ -11652,16 +11652,16 @@
         <v>14894</v>
       </c>
       <c r="H251">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="I251">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="J251">
-        <v>0.02732644017725258</v>
+        <v>0.03222774271518732</v>
       </c>
       <c r="K251">
-        <v>0.02537934738821002</v>
+        <v>0.03061635557942796</v>
       </c>
     </row>
     <row r="252">
@@ -11697,16 +11697,16 @@
         <v>3526</v>
       </c>
       <c r="H252">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="I252">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="J252">
-        <v>0.02580828133862734</v>
+        <v>0.03545093590470788</v>
       </c>
       <c r="K252">
-        <v>0.02580828133862734</v>
+        <v>0.03545093590470788</v>
       </c>
     </row>
     <row r="253">
@@ -11742,16 +11742,16 @@
         <v>2382</v>
       </c>
       <c r="H253">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I253">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J253">
-        <v>0.0109151973131822</v>
+        <v>0.01553316540722082</v>
       </c>
       <c r="K253">
-        <v>0.0109151973131822</v>
+        <v>0.01553316540722082</v>
       </c>
     </row>
     <row r="254">
@@ -11787,16 +11787,16 @@
         <v>1873</v>
       </c>
       <c r="H254">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I254">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J254">
-        <v>0.02242391884676989</v>
+        <v>0.03203416978109984</v>
       </c>
       <c r="K254">
-        <v>0.02242391884676989</v>
+        <v>0.03203416978109984</v>
       </c>
     </row>
     <row r="255">
@@ -11832,16 +11832,16 @@
         <v>8484</v>
       </c>
       <c r="H255">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I255">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J255">
-        <v>0.005657708628005658</v>
+        <v>0.007425742574257425</v>
       </c>
       <c r="K255">
-        <v>0.005657708628005658</v>
+        <v>0.007425742574257425</v>
       </c>
     </row>
     <row r="256">
@@ -11877,16 +11877,16 @@
         <v>56619</v>
       </c>
       <c r="H256">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="I256">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="J256">
-        <v>0.00708242816015825</v>
+        <v>0.007824228615835673</v>
       </c>
       <c r="K256">
-        <v>0.005439870008301101</v>
+        <v>0.006058037054698952</v>
       </c>
     </row>
     <row r="257">
@@ -11922,16 +11922,16 @@
         <v>3919</v>
       </c>
       <c r="H257">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I257">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J257">
-        <v>0.01709619800969635</v>
+        <v>0.02066853789231947</v>
       </c>
       <c r="K257">
-        <v>0.01709619800969635</v>
+        <v>0.02066853789231947</v>
       </c>
     </row>
     <row r="258">
@@ -11967,16 +11967,16 @@
         <v>2794</v>
       </c>
       <c r="H258">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I258">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="J258">
-        <v>0.03042233357193987</v>
+        <v>0.03686471009305655</v>
       </c>
       <c r="K258">
-        <v>0.03042233357193987</v>
+        <v>0.03686471009305655</v>
       </c>
     </row>
     <row r="259">
@@ -12012,16 +12012,16 @@
         <v>2141</v>
       </c>
       <c r="H259">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I259">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J259">
-        <v>0.01447921531994395</v>
+        <v>0.02755721625408688</v>
       </c>
       <c r="K259">
-        <v>0.01447921531994395</v>
+        <v>0.02755721625408688</v>
       </c>
     </row>
     <row r="260">
@@ -12057,16 +12057,16 @@
         <v>2159</v>
       </c>
       <c r="H260">
+        <v>74</v>
+      </c>
+      <c r="I260">
         <v>66</v>
       </c>
-      <c r="I260">
-        <v>58</v>
-      </c>
       <c r="J260">
+        <v>0.03427512737378416</v>
+      </c>
+      <c r="K260">
         <v>0.03056970819823993</v>
-      </c>
-      <c r="K260">
-        <v>0.02686428902269569</v>
       </c>
     </row>
     <row r="261">
@@ -12102,16 +12102,16 @@
         <v>2114</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>0.01229895931882687</v>
       </c>
       <c r="K261">
-        <v>0</v>
+        <v>0.01229895931882687</v>
       </c>
     </row>
     <row r="262">
@@ -12147,16 +12147,16 @@
         <v>12319</v>
       </c>
       <c r="H262">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="I262">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="J262">
-        <v>0.02345969640392889</v>
+        <v>0.02613848526666126</v>
       </c>
       <c r="K262">
-        <v>0.02005032876045134</v>
+        <v>0.0227291176231837</v>
       </c>
     </row>
     <row r="263">
@@ -12192,16 +12192,16 @@
         <v>3347</v>
       </c>
       <c r="H263">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I263">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J263">
-        <v>0.03435912757693457</v>
+        <v>0.03645055273379146</v>
       </c>
       <c r="K263">
-        <v>0.03435912757693457</v>
+        <v>0.03645055273379146</v>
       </c>
     </row>
     <row r="264">
@@ -12237,16 +12237,16 @@
         <v>28685</v>
       </c>
       <c r="H264">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="I264">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="J264">
-        <v>0.01084190343385045</v>
+        <v>0.01178316193132299</v>
       </c>
       <c r="K264">
-        <v>0.009656614955551682</v>
+        <v>0.01059787345302423</v>
       </c>
     </row>
     <row r="265">
@@ -12282,16 +12282,16 @@
         <v>750</v>
       </c>
       <c r="H265">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I265">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J265">
-        <v>0.028</v>
+        <v>0.03466666666666667</v>
       </c>
       <c r="K265">
-        <v>0.028</v>
+        <v>0.03466666666666667</v>
       </c>
     </row>
     <row r="266">
@@ -12327,16 +12327,16 @@
         <v>10618</v>
       </c>
       <c r="H266">
-        <v>469</v>
+        <v>569</v>
       </c>
       <c r="I266">
-        <v>441</v>
+        <v>532</v>
       </c>
       <c r="J266">
-        <v>0.04417027688830288</v>
+        <v>0.05358824637408175</v>
       </c>
       <c r="K266">
-        <v>0.0415332454322848</v>
+        <v>0.05010359766434357</v>
       </c>
     </row>
     <row r="267">
@@ -12372,16 +12372,16 @@
         <v>9610</v>
       </c>
       <c r="H267">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="I267">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="J267">
-        <v>0.01321540062434964</v>
+        <v>0.01644120707596254</v>
       </c>
       <c r="K267">
-        <v>0.01321540062434964</v>
+        <v>0.01644120707596254</v>
       </c>
     </row>
     <row r="268">
@@ -12417,16 +12417,16 @@
         <v>21605</v>
       </c>
       <c r="H268">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="I268">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="J268">
-        <v>0.0174496644295302</v>
+        <v>0.0205970840083314</v>
       </c>
       <c r="K268">
-        <v>0.01522795649155288</v>
+        <v>0.01772737792177737</v>
       </c>
     </row>
     <row r="269">
@@ -12462,16 +12462,16 @@
         <v>149048</v>
       </c>
       <c r="H269">
-        <v>1939</v>
+        <v>2207</v>
       </c>
       <c r="I269">
-        <v>1714</v>
+        <v>1943</v>
       </c>
       <c r="J269">
-        <v>0.01300923192528581</v>
+        <v>0.01480731039665074</v>
       </c>
       <c r="K269">
-        <v>0.01149965111910257</v>
+        <v>0.01303606891739574</v>
       </c>
     </row>
     <row r="270">
@@ -12507,16 +12507,16 @@
         <v>2672</v>
       </c>
       <c r="H270">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="I270">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J270">
-        <v>0.0344311377245509</v>
+        <v>0.04229041916167665</v>
       </c>
       <c r="K270">
-        <v>0.0344311377245509</v>
+        <v>0.04229041916167665</v>
       </c>
     </row>
     <row r="271">
@@ -12552,16 +12552,16 @@
         <v>24032</v>
       </c>
       <c r="H271">
-        <v>499</v>
+        <v>600</v>
       </c>
       <c r="I271">
-        <v>416</v>
+        <v>493</v>
       </c>
       <c r="J271">
-        <v>0.02076398135818908</v>
+        <v>0.02496671105193076</v>
       </c>
       <c r="K271">
-        <v>0.01731025299600533</v>
+        <v>0.02051431424766977</v>
       </c>
     </row>
     <row r="272">
@@ -12597,16 +12597,16 @@
         <v>24717</v>
       </c>
       <c r="H272">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="I272">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="J272">
-        <v>0.01662823158150261</v>
+        <v>0.02010761823845936</v>
       </c>
       <c r="K272">
-        <v>0.01375571469029413</v>
+        <v>0.01606181980013756</v>
       </c>
     </row>
     <row r="273">
@@ -12642,16 +12642,16 @@
         <v>2276</v>
       </c>
       <c r="H273">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I273">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J273">
-        <v>0.01054481546572935</v>
+        <v>0.01757469244288225</v>
       </c>
       <c r="K273">
-        <v>0.01054481546572935</v>
+        <v>0.01757469244288225</v>
       </c>
     </row>
     <row r="274">
@@ -12687,16 +12687,16 @@
         <v>19287</v>
       </c>
       <c r="H274">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="I274">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J274">
-        <v>0.01223622128895111</v>
+        <v>0.01399906672888474</v>
       </c>
       <c r="K274">
-        <v>0.01021413387255665</v>
+        <v>0.01119925338310779</v>
       </c>
     </row>
     <row r="275">
@@ -12732,16 +12732,16 @@
         <v>1825</v>
       </c>
       <c r="H275">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I275">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J275">
-        <v>0.0136986301369863</v>
+        <v>0.01863013698630137</v>
       </c>
       <c r="K275">
-        <v>0.0136986301369863</v>
+        <v>0.01863013698630137</v>
       </c>
     </row>
     <row r="276">
@@ -12777,16 +12777,16 @@
         <v>13703</v>
       </c>
       <c r="H276">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I276">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J276">
-        <v>0.02101729548274101</v>
+        <v>0.02152813252572429</v>
       </c>
       <c r="K276">
-        <v>0.01948478435379114</v>
+        <v>0.01999562139677443</v>
       </c>
     </row>
     <row r="277">
@@ -12822,16 +12822,16 @@
         <v>4348</v>
       </c>
       <c r="H277">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I277">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="J277">
-        <v>0.01333946642134315</v>
+        <v>0.02115915363385465</v>
       </c>
       <c r="K277">
-        <v>0.01333946642134315</v>
+        <v>0.02115915363385465</v>
       </c>
     </row>
     <row r="278">
@@ -12867,16 +12867,16 @@
         <v>7271</v>
       </c>
       <c r="H278">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="I278">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="J278">
-        <v>0.02503094484940173</v>
+        <v>0.02819419612157888</v>
       </c>
       <c r="K278">
-        <v>0.02200522624123229</v>
+        <v>0.02516847751340943</v>
       </c>
     </row>
     <row r="279">
@@ -12912,16 +12912,16 @@
         <v>9720</v>
       </c>
       <c r="H279">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I279">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="J279">
-        <v>0.009156378600823046</v>
+        <v>0.01121399176954732</v>
       </c>
       <c r="K279">
-        <v>0.006687242798353909</v>
+        <v>0.008744855967078189</v>
       </c>
     </row>
     <row r="280">
@@ -12957,16 +12957,16 @@
         <v>3889</v>
       </c>
       <c r="H280">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="I280">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J280">
-        <v>0.05631267678066341</v>
+        <v>0.06196965800977115</v>
       </c>
       <c r="K280">
-        <v>0.05502699922859347</v>
+        <v>0.06068398045770121</v>
       </c>
     </row>
     <row r="281">
@@ -13002,16 +13002,16 @@
         <v>7227</v>
       </c>
       <c r="H281">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="I281">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="J281">
-        <v>0.05728518057285181</v>
+        <v>0.0589456205894562</v>
       </c>
       <c r="K281">
-        <v>0.0546561505465615</v>
+        <v>0.0563165905631659</v>
       </c>
     </row>
     <row r="282">
@@ -13047,16 +13047,16 @@
         <v>22450</v>
       </c>
       <c r="H282">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="I282">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="J282">
-        <v>0.01674832962138085</v>
+        <v>0.01866369710467706</v>
       </c>
       <c r="K282">
-        <v>0.01523385300668152</v>
+        <v>0.01714922048997773</v>
       </c>
     </row>
     <row r="283">
@@ -13092,16 +13092,16 @@
         <v>5953</v>
       </c>
       <c r="H283">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="I283">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J283">
-        <v>0.03712413908953469</v>
+        <v>0.04098773727532336</v>
       </c>
       <c r="K283">
-        <v>0.03309255837392911</v>
+        <v>0.03695615655971779</v>
       </c>
     </row>
     <row r="284">
@@ -13137,16 +13137,16 @@
         <v>5742</v>
       </c>
       <c r="H284">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I284">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J284">
-        <v>0.0127133402995472</v>
+        <v>0.01602229188436085</v>
       </c>
       <c r="K284">
-        <v>0.0127133402995472</v>
+        <v>0.01602229188436085</v>
       </c>
     </row>
     <row r="285">
@@ -13182,16 +13182,16 @@
         <v>7617</v>
       </c>
       <c r="H285">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="I285">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="J285">
-        <v>0.02126821583300512</v>
+        <v>0.02533805960351845</v>
       </c>
       <c r="K285">
-        <v>0.02126821583300512</v>
+        <v>0.02533805960351845</v>
       </c>
     </row>
     <row r="286">
@@ -13227,16 +13227,16 @@
         <v>1976</v>
       </c>
       <c r="H286">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I286">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="J286">
-        <v>0.03846153846153846</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="K286">
-        <v>0.03846153846153846</v>
+        <v>0.04807692307692308</v>
       </c>
     </row>
     <row r="287">
@@ -13272,16 +13272,16 @@
         <v>5587</v>
       </c>
       <c r="H287">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="I287">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J287">
-        <v>0.02774297476284231</v>
+        <v>0.03239663504564167</v>
       </c>
       <c r="K287">
-        <v>0.02577411848935028</v>
+        <v>0.03042777877214963</v>
       </c>
     </row>
     <row r="288">
@@ -13317,16 +13317,16 @@
         <v>2836</v>
       </c>
       <c r="H288">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I288">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J288">
-        <v>0.008462623413258111</v>
+        <v>0.01480959097320169</v>
       </c>
       <c r="K288">
-        <v>0.008462623413258111</v>
+        <v>0.01480959097320169</v>
       </c>
     </row>
     <row r="289">
@@ -13362,16 +13362,16 @@
         <v>3119</v>
       </c>
       <c r="H289">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I289">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="J289">
-        <v>0.020519397242706</v>
+        <v>0.02629047771721706</v>
       </c>
       <c r="K289">
-        <v>0.020519397242706</v>
+        <v>0.02629047771721706</v>
       </c>
     </row>
     <row r="290">
@@ -13407,16 +13407,16 @@
         <v>8112</v>
       </c>
       <c r="H290">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I290">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="J290">
-        <v>0.01331360946745562</v>
+        <v>0.01479289940828402</v>
       </c>
       <c r="K290">
-        <v>0.01269723865877712</v>
+        <v>0.01417652859960552</v>
       </c>
     </row>
     <row r="291">
@@ -13452,16 +13452,16 @@
         <v>10063</v>
       </c>
       <c r="H291">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="I291">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J291">
-        <v>0.02325350293153135</v>
+        <v>0.02583722547947928</v>
       </c>
       <c r="K291">
-        <v>0.01788730994733181</v>
+        <v>0.02047103249527974</v>
       </c>
     </row>
     <row r="292">
@@ -13497,16 +13497,16 @@
         <v>1858</v>
       </c>
       <c r="H292">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I292">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J292">
-        <v>0.02852529601722282</v>
+        <v>0.03336921420882669</v>
       </c>
       <c r="K292">
-        <v>0.02852529601722282</v>
+        <v>0.03336921420882669</v>
       </c>
     </row>
     <row r="293">
@@ -13542,16 +13542,16 @@
         <v>3485</v>
       </c>
       <c r="H293">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="I293">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="J293">
-        <v>0.05107604017216643</v>
+        <v>0.06398852223816356</v>
       </c>
       <c r="K293">
-        <v>0.04074605451936873</v>
+        <v>0.05078909612625538</v>
       </c>
     </row>
     <row r="294">
@@ -13587,16 +13587,16 @@
         <v>19910</v>
       </c>
       <c r="H294">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="I294">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="J294">
-        <v>0.0155700652938222</v>
+        <v>0.01667503766951281</v>
       </c>
       <c r="K294">
-        <v>0.01471622300351582</v>
+        <v>0.01582119537920643</v>
       </c>
     </row>
     <row r="295">
@@ -13632,16 +13632,16 @@
         <v>3041</v>
       </c>
       <c r="H295">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I295">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J295">
-        <v>0.03222624136797106</v>
+        <v>0.035843472541927</v>
       </c>
       <c r="K295">
-        <v>0.03222624136797106</v>
+        <v>0.035843472541927</v>
       </c>
     </row>
     <row r="296">
@@ -13677,16 +13677,16 @@
         <v>5533</v>
       </c>
       <c r="H296">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="I296">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J296">
-        <v>0.01445870233146575</v>
+        <v>0.0189770468100488</v>
       </c>
       <c r="K296">
-        <v>0.01445870233146575</v>
+        <v>0.0189770468100488</v>
       </c>
     </row>
     <row r="297">
@@ -13722,16 +13722,16 @@
         <v>2212</v>
       </c>
       <c r="H297">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I297">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J297">
-        <v>0.03345388788426763</v>
+        <v>0.03887884267631103</v>
       </c>
       <c r="K297">
-        <v>0.03119349005424955</v>
+        <v>0.03661844484629295</v>
       </c>
     </row>
     <row r="298">
@@ -13767,16 +13767,16 @@
         <v>1604</v>
       </c>
       <c r="H298">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I298">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="J298">
-        <v>0.04488778054862843</v>
+        <v>0.05735660847880299</v>
       </c>
       <c r="K298">
-        <v>0.04488778054862843</v>
+        <v>0.05735660847880299</v>
       </c>
     </row>
     <row r="299">
@@ -13812,16 +13812,16 @@
         <v>78745</v>
       </c>
       <c r="H299">
-        <v>1045</v>
+        <v>1167</v>
       </c>
       <c r="I299">
-        <v>911</v>
+        <v>1024</v>
       </c>
       <c r="J299">
-        <v>0.01327068385294304</v>
+        <v>0.0148199885707029</v>
       </c>
       <c r="K299">
-        <v>0.01156898850720681</v>
+        <v>0.01300400025398438</v>
       </c>
     </row>
     <row r="300">
@@ -13857,16 +13857,16 @@
         <v>214565</v>
       </c>
       <c r="H300">
-        <v>1907</v>
+        <v>2184</v>
       </c>
       <c r="I300">
-        <v>1537</v>
+        <v>1770</v>
       </c>
       <c r="J300">
-        <v>0.008887749632978352</v>
+        <v>0.01017873371705544</v>
       </c>
       <c r="K300">
-        <v>0.007163330459301377</v>
+        <v>0.008249248479481741</v>
       </c>
     </row>
     <row r="301">
@@ -13902,16 +13902,16 @@
         <v>6566</v>
       </c>
       <c r="H301">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I301">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J301">
-        <v>0.01462077368260737</v>
+        <v>0.01705756929637527</v>
       </c>
       <c r="K301">
-        <v>0.011727078891258</v>
+        <v>0.01416387450502589</v>
       </c>
     </row>
     <row r="302">
@@ -13947,16 +13947,16 @@
         <v>442</v>
       </c>
       <c r="H302">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I302">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J302">
-        <v>0.03846153846153846</v>
+        <v>0.07466063348416289</v>
       </c>
       <c r="K302">
-        <v>0.03846153846153846</v>
+        <v>0.07466063348416289</v>
       </c>
     </row>
     <row r="303">
@@ -13992,16 +13992,16 @@
         <v>6323</v>
       </c>
       <c r="H303">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="I303">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="J303">
-        <v>0.01597343033370236</v>
+        <v>0.01961094417207022</v>
       </c>
       <c r="K303">
-        <v>0.0151826664557963</v>
+        <v>0.01882018029416416</v>
       </c>
     </row>
     <row r="304">
@@ -14037,16 +14037,16 @@
         <v>773</v>
       </c>
       <c r="H304">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I304">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J304">
-        <v>0.02457956015523933</v>
+        <v>0.04139715394566624</v>
       </c>
       <c r="K304">
-        <v>0.02457956015523933</v>
+        <v>0.04139715394566624</v>
       </c>
     </row>
     <row r="305">
@@ -14082,16 +14082,16 @@
         <v>5692</v>
       </c>
       <c r="H305">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="I305">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J305">
-        <v>0.03496134926212228</v>
+        <v>0.03882642304989459</v>
       </c>
       <c r="K305">
-        <v>0.03215038650737877</v>
+        <v>0.03601546029515109</v>
       </c>
     </row>
     <row r="306">
@@ -14127,16 +14127,16 @@
         <v>2922</v>
       </c>
       <c r="H306">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I306">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J306">
-        <v>0.01574264202600958</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="K306">
-        <v>0.01574264202600958</v>
+        <v>0.02053388090349076</v>
       </c>
     </row>
     <row r="307">
@@ -14172,16 +14172,16 @@
         <v>11570</v>
       </c>
       <c r="H307">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="I307">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="J307">
-        <v>0.02359550561797753</v>
+        <v>0.02523768366464996</v>
       </c>
       <c r="K307">
-        <v>0.02178046672428695</v>
+        <v>0.02342264477095938</v>
       </c>
     </row>
     <row r="308">
@@ -14217,16 +14217,16 @@
         <v>59174</v>
       </c>
       <c r="H308">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="I308">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="J308">
-        <v>0.01040997735491939</v>
+        <v>0.01181262040761145</v>
       </c>
       <c r="K308">
-        <v>0.008787643221685199</v>
+        <v>0.009919897252171562</v>
       </c>
     </row>
     <row r="309">
@@ -14262,16 +14262,16 @@
         <v>43814</v>
       </c>
       <c r="H309">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="I309">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="J309">
-        <v>0.009471858310129182</v>
+        <v>0.01027068973387502</v>
       </c>
       <c r="K309">
-        <v>0.007372072853425846</v>
+        <v>0.00810243301227918</v>
       </c>
     </row>
     <row r="310">
@@ -14307,16 +14307,16 @@
         <v>11017</v>
       </c>
       <c r="H310">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="I310">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="J310">
-        <v>0.0266860306798584</v>
+        <v>0.03058908958881728</v>
       </c>
       <c r="K310">
-        <v>0.01824453117908686</v>
+        <v>0.02105836434601071</v>
       </c>
     </row>
     <row r="311">
@@ -14352,16 +14352,16 @@
         <v>8861</v>
       </c>
       <c r="H311">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="I311">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J311">
-        <v>0.03216341270736937</v>
+        <v>0.0354361810179438</v>
       </c>
       <c r="K311">
-        <v>0.02968062295451981</v>
+        <v>0.03295339126509423</v>
       </c>
     </row>
     <row r="312">
@@ -14397,16 +14397,16 @@
         <v>1089</v>
       </c>
       <c r="H312">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I312">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J312">
-        <v>0.01928374655647383</v>
+        <v>0.03856749311294766</v>
       </c>
       <c r="K312">
-        <v>0.01928374655647383</v>
+        <v>0.03856749311294766</v>
       </c>
     </row>
     <row r="313">
@@ -14442,16 +14442,16 @@
         <v>859</v>
       </c>
       <c r="H313">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I313">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J313">
-        <v>0.03841676367869616</v>
+        <v>0.05238649592549476</v>
       </c>
       <c r="K313">
-        <v>0.03841676367869616</v>
+        <v>0.05238649592549476</v>
       </c>
     </row>
     <row r="314">
@@ -14487,16 +14487,16 @@
         <v>215</v>
       </c>
       <c r="H314">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I314">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J314">
-        <v>0.07906976744186046</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="K314">
-        <v>0.07906976744186046</v>
+        <v>0.1441860465116279</v>
       </c>
     </row>
     <row r="315">
@@ -14532,16 +14532,16 @@
         <v>5807</v>
       </c>
       <c r="H315">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="I315">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="J315">
-        <v>0.04029619424832099</v>
+        <v>0.04804546237299811</v>
       </c>
       <c r="K315">
-        <v>0.03478560358188394</v>
+        <v>0.04253487170656105</v>
       </c>
     </row>
     <row r="316">
@@ -14577,16 +14577,16 @@
         <v>3852</v>
       </c>
       <c r="H316">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="I316">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="J316">
-        <v>0.02855659397715472</v>
+        <v>0.03530633437175493</v>
       </c>
       <c r="K316">
-        <v>0.02855659397715472</v>
+        <v>0.03530633437175493</v>
       </c>
     </row>
     <row r="317">
@@ -14622,16 +14622,16 @@
         <v>1205</v>
       </c>
       <c r="H317">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I317">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J317">
-        <v>0.02987551867219917</v>
+        <v>0.03983402489626556</v>
       </c>
       <c r="K317">
-        <v>0.02987551867219917</v>
+        <v>0.03983402489626556</v>
       </c>
     </row>
     <row r="318">
@@ -14667,16 +14667,16 @@
         <v>1645</v>
       </c>
       <c r="H318">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I318">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J318">
-        <v>0.02674772036474164</v>
+        <v>0.03161094224924012</v>
       </c>
       <c r="K318">
-        <v>0.02674772036474164</v>
+        <v>0.03161094224924012</v>
       </c>
     </row>
     <row r="319">
@@ -14712,16 +14712,16 @@
         <v>3026</v>
       </c>
       <c r="H319">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="I319">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="J319">
-        <v>0.02875082617316589</v>
+        <v>0.03899537343027099</v>
       </c>
       <c r="K319">
-        <v>0.02875082617316589</v>
+        <v>0.03899537343027099</v>
       </c>
     </row>
     <row r="320">
@@ -14757,16 +14757,16 @@
         <v>1972</v>
       </c>
       <c r="H320">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="I320">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J320">
-        <v>0.0537525354969574</v>
+        <v>0.06845841784989858</v>
       </c>
       <c r="K320">
-        <v>0.0537525354969574</v>
+        <v>0.06845841784989858</v>
       </c>
     </row>
     <row r="321">
@@ -14802,16 +14802,16 @@
         <v>13469</v>
       </c>
       <c r="H321">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="I321">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="J321">
-        <v>0.02427797163857747</v>
+        <v>0.02769322147152721</v>
       </c>
       <c r="K321">
-        <v>0.02271883584527433</v>
+        <v>0.02613408567822407</v>
       </c>
     </row>
     <row r="322">
@@ -14847,16 +14847,16 @@
         <v>1208</v>
       </c>
       <c r="H322">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I322">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="J322">
-        <v>0.03890728476821192</v>
+        <v>0.05132450331125828</v>
       </c>
       <c r="K322">
-        <v>0.03890728476821192</v>
+        <v>0.05132450331125828</v>
       </c>
     </row>
     <row r="323">
@@ -14892,16 +14892,16 @@
         <v>2268</v>
       </c>
       <c r="H323">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I323">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J323">
-        <v>0.03042328042328042</v>
+        <v>0.03395061728395062</v>
       </c>
       <c r="K323">
-        <v>0.03042328042328042</v>
+        <v>0.03395061728395062</v>
       </c>
     </row>
     <row r="324">
@@ -14937,16 +14937,16 @@
         <v>15452</v>
       </c>
       <c r="H324">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="I324">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="J324">
-        <v>0.01540253688842868</v>
+        <v>0.01682630080248512</v>
       </c>
       <c r="K324">
-        <v>0.01540253688842868</v>
+        <v>0.01682630080248512</v>
       </c>
     </row>
     <row r="325">
@@ -14982,16 +14982,16 @@
         <v>15193</v>
       </c>
       <c r="H325">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="I325">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="J325">
-        <v>0.02376094253932732</v>
+        <v>0.02817086816296979</v>
       </c>
       <c r="K325">
-        <v>0.02165470940564734</v>
+        <v>0.02494569867702231</v>
       </c>
     </row>
     <row r="326">
@@ -15027,16 +15027,16 @@
         <v>19493</v>
       </c>
       <c r="H326">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="I326">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="J326">
-        <v>0.014261529779921</v>
+        <v>0.01677525265479916</v>
       </c>
       <c r="K326">
-        <v>0.01246601344072231</v>
+        <v>0.01446673164725799</v>
       </c>
     </row>
     <row r="327">
@@ -15072,16 +15072,16 @@
         <v>7147</v>
       </c>
       <c r="H327">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="I327">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="J327">
-        <v>0.03581922484958724</v>
+        <v>0.04351476143836575</v>
       </c>
       <c r="K327">
-        <v>0.03581922484958724</v>
+        <v>0.04281516720302225</v>
       </c>
     </row>
     <row r="328">
@@ -15117,16 +15117,16 @@
         <v>2112</v>
       </c>
       <c r="H328">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I328">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J328">
-        <v>0.02414772727272727</v>
+        <v>0.02888257575757576</v>
       </c>
       <c r="K328">
-        <v>0.02414772727272727</v>
+        <v>0.02888257575757576</v>
       </c>
     </row>
     <row r="329">
@@ -15162,16 +15162,16 @@
         <v>13691</v>
       </c>
       <c r="H329">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="I329">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="J329">
-        <v>0.015995909721715</v>
+        <v>0.01789496749689577</v>
       </c>
       <c r="K329">
-        <v>0.015995909721715</v>
+        <v>0.01789496749689577</v>
       </c>
     </row>
     <row r="330">
@@ -15207,16 +15207,16 @@
         <v>11619</v>
       </c>
       <c r="H330">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="I330">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="J330">
-        <v>0.02401239349341596</v>
+        <v>0.02487305275841294</v>
       </c>
       <c r="K330">
-        <v>0.02229107496342198</v>
+        <v>0.02315173422841897</v>
       </c>
     </row>
     <row r="331">
@@ -15252,16 +15252,16 @@
         <v>480</v>
       </c>
       <c r="H331">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I331">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J331">
-        <v>0.02916666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K331">
-        <v>0.02916666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="332">
@@ -15297,16 +15297,16 @@
         <v>2551</v>
       </c>
       <c r="H332">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I332">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J332">
-        <v>0.02234417875343003</v>
+        <v>0.02548020384163073</v>
       </c>
       <c r="K332">
-        <v>0.02234417875343003</v>
+        <v>0.02548020384163073</v>
       </c>
     </row>
     <row r="333">
@@ -15342,16 +15342,16 @@
         <v>8938</v>
       </c>
       <c r="H333">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="I333">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="J333">
-        <v>0.02047437905571716</v>
+        <v>0.02539718057731036</v>
       </c>
       <c r="K333">
-        <v>0.01879615126426494</v>
+        <v>0.02371895278585813</v>
       </c>
     </row>
     <row r="334">
@@ -15387,16 +15387,16 @@
         <v>3851</v>
       </c>
       <c r="H334">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="I334">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J334">
-        <v>0.03297844715658271</v>
+        <v>0.04050895871202285</v>
       </c>
       <c r="K334">
-        <v>0.03142041028304336</v>
+        <v>0.03895092183848351</v>
       </c>
     </row>
     <row r="335">
@@ -15432,16 +15432,16 @@
         <v>11093</v>
       </c>
       <c r="H335">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="I335">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="J335">
-        <v>0.02974849003876318</v>
+        <v>0.03209231046605968</v>
       </c>
       <c r="K335">
-        <v>0.02686378797439827</v>
+        <v>0.02920760840169476</v>
       </c>
     </row>
     <row r="336">
@@ -15477,16 +15477,16 @@
         <v>16471</v>
       </c>
       <c r="H336">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="I336">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="J336">
-        <v>0.02021735170906442</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="K336">
-        <v>0.01851739420800194</v>
+        <v>0.02027806447695951</v>
       </c>
     </row>
     <row r="337">
@@ -15522,16 +15522,16 @@
         <v>9793</v>
       </c>
       <c r="H337">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="I337">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="J337">
-        <v>0.03002144388849178</v>
+        <v>0.03747574798325334</v>
       </c>
       <c r="K337">
-        <v>0.02746860002042275</v>
+        <v>0.03492290411518432</v>
       </c>
     </row>
     <row r="338">
@@ -15567,16 +15567,16 @@
         <v>3531</v>
       </c>
       <c r="H338">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="I338">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J338">
-        <v>0.0226564712546021</v>
+        <v>0.03143585386576041</v>
       </c>
       <c r="K338">
-        <v>0.0226564712546021</v>
+        <v>0.03143585386576041</v>
       </c>
     </row>
     <row r="339">
@@ -15612,16 +15612,16 @@
         <v>3615</v>
       </c>
       <c r="H339">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I339">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J339">
-        <v>0.01134163208852005</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="K339">
-        <v>0.009958506224066389</v>
+        <v>0.01521438450899032</v>
       </c>
     </row>
     <row r="340">
@@ -15657,16 +15657,16 @@
         <v>6145</v>
       </c>
       <c r="H340">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I340">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J340">
-        <v>0.009926769731489015</v>
+        <v>0.008299430431244915</v>
       </c>
       <c r="K340">
-        <v>0.009926769731489015</v>
+        <v>0.008299430431244915</v>
       </c>
     </row>
     <row r="341">
@@ -15747,16 +15747,16 @@
         <v>4339</v>
       </c>
       <c r="H342">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="I342">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J342">
-        <v>0.0212030421756165</v>
+        <v>0.0260428670200507</v>
       </c>
       <c r="K342">
-        <v>0.01958976722747177</v>
+        <v>0.02442959207190597</v>
       </c>
     </row>
     <row r="343">
@@ -15792,16 +15792,16 @@
         <v>5007</v>
       </c>
       <c r="H343">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I343">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J343">
-        <v>0.02975833832634312</v>
+        <v>0.03175554224086279</v>
       </c>
       <c r="K343">
-        <v>0.02676253245456361</v>
+        <v>0.02875973636908328</v>
       </c>
     </row>
     <row r="344">
@@ -15837,16 +15837,16 @@
         <v>58509</v>
       </c>
       <c r="H344">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="I344">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="J344">
-        <v>0.009964278999811995</v>
+        <v>0.01129740723649353</v>
       </c>
       <c r="K344">
-        <v>0.009280623493821463</v>
+        <v>0.01034028952810679</v>
       </c>
     </row>
     <row r="345">
@@ -15882,16 +15882,16 @@
         <v>1802</v>
       </c>
       <c r="H345">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I345">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J345">
-        <v>0.01276359600443951</v>
+        <v>0.02164261931187569</v>
       </c>
       <c r="K345">
-        <v>0.01276359600443951</v>
+        <v>0.02164261931187569</v>
       </c>
     </row>
     <row r="346">
@@ -15927,16 +15927,16 @@
         <v>4289</v>
       </c>
       <c r="H346">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I346">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J346">
-        <v>0.01818605735602705</v>
+        <v>0.02051760317090231</v>
       </c>
       <c r="K346">
-        <v>0.01818605735602705</v>
+        <v>0.02051760317090231</v>
       </c>
     </row>
     <row r="347">
@@ -15972,16 +15972,16 @@
         <v>5239</v>
       </c>
       <c r="H347">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="I347">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J347">
-        <v>0.01717885092574919</v>
+        <v>0.02118724947509067</v>
       </c>
       <c r="K347">
-        <v>0.01622447031876312</v>
+        <v>0.0202328688681046</v>
       </c>
     </row>
     <row r="348">
@@ -16017,16 +16017,16 @@
         <v>22005</v>
       </c>
       <c r="H348">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="I348">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="J348">
-        <v>0.01345148829811407</v>
+        <v>0.01513292433537832</v>
       </c>
       <c r="K348">
-        <v>0.01181549647807316</v>
+        <v>0.01349693251533742</v>
       </c>
     </row>
     <row r="349">
@@ -16062,16 +16062,16 @@
         <v>923</v>
       </c>
       <c r="H349">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I349">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J349">
-        <v>0.04333694474539545</v>
+        <v>0.05200433369447454</v>
       </c>
       <c r="K349">
-        <v>0.04333694474539545</v>
+        <v>0.05200433369447454</v>
       </c>
     </row>
     <row r="350">
@@ -16107,16 +16107,16 @@
         <v>7339</v>
       </c>
       <c r="H350">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I350">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J350">
-        <v>0.01062815097424717</v>
+        <v>0.01362583458236817</v>
       </c>
       <c r="K350">
-        <v>0.01062815097424717</v>
+        <v>0.01362583458236817</v>
       </c>
     </row>
     <row r="351">
@@ -16152,16 +16152,16 @@
         <v>4569</v>
       </c>
       <c r="H351">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="I351">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="J351">
-        <v>0.03107901072444736</v>
+        <v>0.03611293499671701</v>
       </c>
       <c r="K351">
-        <v>0.03107901072444736</v>
+        <v>0.03611293499671701</v>
       </c>
     </row>
     <row r="352">
@@ -16197,16 +16197,16 @@
         <v>10522</v>
       </c>
       <c r="H352">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="I352">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="J352">
-        <v>0.01596654628397643</v>
+        <v>0.01872267629728189</v>
       </c>
       <c r="K352">
-        <v>0.01596654628397643</v>
+        <v>0.01872267629728189</v>
       </c>
     </row>
     <row r="353">
@@ -16242,16 +16242,16 @@
         <v>10958</v>
       </c>
       <c r="H353">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="I353">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J353">
-        <v>0.01962036868041614</v>
+        <v>0.02135426172659245</v>
       </c>
       <c r="K353">
-        <v>0.01670012776054024</v>
+        <v>0.01843402080671655</v>
       </c>
     </row>
     <row r="354">
@@ -16287,16 +16287,16 @@
         <v>14840</v>
       </c>
       <c r="H354">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="I354">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J354">
-        <v>0.011455525606469</v>
+        <v>0.01327493261455526</v>
       </c>
       <c r="K354">
-        <v>0.011455525606469</v>
+        <v>0.01280323450134771</v>
       </c>
     </row>
     <row r="355">
@@ -16332,16 +16332,16 @@
         <v>20779</v>
       </c>
       <c r="H355">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="I355">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="J355">
-        <v>0.01674767794407815</v>
+        <v>0.01833581981808557</v>
       </c>
       <c r="K355">
-        <v>0.01438952788873382</v>
+        <v>0.01592954425140767</v>
       </c>
     </row>
     <row r="356">
@@ -16377,16 +16377,16 @@
         <v>5124</v>
       </c>
       <c r="H356">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="I356">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="J356">
-        <v>0.02127244340359094</v>
+        <v>0.02790788446526151</v>
       </c>
       <c r="K356">
-        <v>0.02127244340359094</v>
+        <v>0.02790788446526151</v>
       </c>
     </row>
     <row r="357">
@@ -16422,16 +16422,16 @@
         <v>39768</v>
       </c>
       <c r="H357">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="I357">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="J357">
-        <v>0.01244719372359686</v>
+        <v>0.01433313216656608</v>
       </c>
       <c r="K357">
-        <v>0.01068698451015892</v>
+        <v>0.01217058941862804</v>
       </c>
     </row>
     <row r="358">
@@ -16467,16 +16467,16 @@
         <v>3298</v>
       </c>
       <c r="H358">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I358">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J358">
-        <v>0.03850818677986659</v>
+        <v>0.04184354154032747</v>
       </c>
       <c r="K358">
-        <v>0.03850818677986659</v>
+        <v>0.04184354154032747</v>
       </c>
     </row>
   </sheetData>
@@ -16728,10 +16728,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07626311-5b23-4afe-aa20-cc40db419bd4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d74b2904-cc6e-4260-b9ea-005e83d891d2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{084BD973-5185-4813-B59B-677769F4D53D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA4509F-4356-46AB-BC80-A611E8E3EF72}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8927297C-81EC-4FD7-804C-18B45CE9FF00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B656C7-8EAA-49A3-A36B-2F9EB974193F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43FF6E96-C668-4800-A623-74B576DD4363}"/>
 </file>